--- a/!parsed_items_100/1299/1299_2899-3000.xlsx
+++ b/!parsed_items_100/1299/1299_2899-3000.xlsx
@@ -639,28 +639,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RABBIT ESSENTIALS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Феромоны мужские для привлечения женщин</t>
+          <t>Фрикционный перезаряжаемый вибратор</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-3533-1299</t>
+          <t>id-23221-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -676,57 +676,71 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3533/3533_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3533/3533_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23221/23221_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23221/23221_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23221/23221_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23221/23221_4_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Они не имеют запаха, их можно использовать как с мужским парфюмом, так и без него. Но результат всегда один  безудержное влечение женщин только к Вам!Хотите стать по-настоящему обаятельным?Тогда DESIRE INVISIBLE с феромонами - это 100% инвестиция в улучшение Вашей жизни!Духи на масляной основе. Не используются феромоны животного происхождения! Только синтетические феромоны!.Феромоны мужские для привлечения женщин Invisible (без запаха) 5 мл.  Феромоны мужские для привлечения женщин Invisible (без запаха) 5 мл. Модель: rosparf-020. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Вибратор с пульсирующей и толкающей головкой - это 10-ти функциональный кролик с впечатляющей мощностью и способностью доводить до экстаза. Thrusting Rabbit изготовлен из не содержащего фталатов, латекса, безопасного для тела силикона, поверхность которого невероятно бархатистая и гладкая. Увеличенная головка и поступательные движения игрушки отлично стимулируют точку G и создают невероятные ощущения. Светодиодный дисплей, скрытый порт USB зарядки и чехол для хранения в комплекте. Фрикционный перезаряжаемый вибратор Thrusting Rabbit Vibrator (10 режимов, 2 мотора).  Фрикционный перезаряжаемый вибратор Thrusting Rabbit Vibrator (10 режимов, 2 мотора). Модель: rabbit-rr-008-pnk. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: ярко-розовый с белым. Материал: высококачественный силикон с бархатистой по</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>24.5</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3.9</v>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -739,7 +753,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядное USB-устройство, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -759,13 +773,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>REAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,12 +789,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Феромоны женские для привлечения мужчин</t>
+          <t>Реалистичный фаллос на присоске Real</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-3532-1299</t>
+          <t>id-20442-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -796,57 +810,67 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3532/3532_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3532/3532_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20442/20442_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20442/20442_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20442/20442_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20442/20442_4_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские ПРЕМИУМ без запаха. Содержание феромонов значительно увеличено в отличии от ранее представленных коллекций. INVISIBLE ─ невидим для окружающих. Однако, эффект не терпит промедления  Вы сразу почувствуете особое внимание к себе и оцените его по достоинству!Уникальны эти духи тем, что феромоны содержащиеся в них, усиливают Вашу привлекательность, поднимают настроение и придают уверенность, а отсутствие парфюмерной композиции позволяет одновременно применять свой парфюм. Но результат всегда один  безудержное влечение мужского пола только к Вам!Духи на масляной основе. Не используются феромоны животного происхождения! Только синтетические феромоны! Рекомендуется наносить: на запястья, заушную область, локтевые и подколенные сгибы, ложбинку между грудей. Феромоны женские для привлечения мужчин Invisible (без запаха) 5 мл.  Феромоны женские для привлечения мужчин Invisible (без запаха) 5 мл. Модель: rosparf-021. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Красивый упругий фаллос Real реалистичного вида с открытой головкой и волнующими яичками. Сделан фаллоимитатор из премиального гигиеничного силикона без запаха. Ствол фаллоса и мошонка покрыты всевозможными венками и складочками, которые придают еще большей реалистичности и дополнительно ласкают стенки влагалища.В основании имеется мощная присоска для крепления на стену, стул или даже в страпон-трусики с кольцом. Реалистичный фаллос на присоске Real.  Реалистичный фаллос на присоске Real. Модель: real-rm10036. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Супер реалистичные. Цвет: телесный. Материал: премиальный силикон. Батареек нет в комплекте. Бренд: REAL. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>премиальный силикон</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>20</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.3</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -879,13 +903,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>REAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -895,12 +919,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Реалистичный фаллос на присоске с</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-3575-1299</t>
+          <t>id-22506-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -916,57 +940,67 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3575/3575_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22506/22506_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22506/22506_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22506/22506_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22506/22506_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22506/22506_5_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эти духи настоящее воплощение тайны, магии и загадочности. Х</t>
+          <t xml:space="preserve">Real Dual Layer - реалистичный фаллоимитатор из высококачественного безопасного материала. Современная технология изготовления обеспечивает игрушке двойную структуру. Плотный стержень покрыт слоем мягкого и нежного, приятного на ощупь материала. Мощный мотор обеспечивает 10 функций интенсивной равномерной вибрации. Управления осуществляется с пультом дистанционного управления (на шнуре).Имитация имеет мягкую округлую головку, гибкое покрытое венками тело, упругую естественной формы мошонку. Присоска в основании позволяет надежно закрепить игрушку на любой гладкой поверхности или использовать в качестве страпона.Для комфортности введения и получения наиболее приятных ощущений можно использовать смазку на водной основе.Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Не забывайте выключать игрушку после использования. В противном случае фаллоимитатор может выйти из строя.Перед хранением игрушку необходимо хорошо просушить. В комплект входит специальный мешочек для хранения. Игрушку желательно держать отдельно от других силиконовых изделий. Не допускать попадание прямых солнечных лучей. Реалистичный фаллос на присоске с вибрацией REAL Dual Layer (10 режимов).  Реалистичный фаллос на присоске с вибрацией REAL Dual Layer (10 режимов). Модель: real-rpdv10022. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Супер реалистичные. Цвет: телесный. Материал: ПВХ с нежной поверхностью. Батареек нет в комплекте. Бренд: REAL. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>ПВХ с нежной поверхностью</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>4.345</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3.95</v>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -999,13 +1033,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>REAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1015,12 +1049,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Реалистичный вибратор на присоске Real</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-3576-1299</t>
+          <t>id-21924-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1036,17 +1070,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3576/3576_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21924/21924_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21924/21924_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21924/21924_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21924/21924_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21924/21924_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21924/21924_6_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Парфюм нового дня и новой жизни. Вместо серых будней пойдёт череда волшебных праздников полные веселья, радости и чудес. Свежий и нежный аромат. Раскрывается букетом пряных цветов. Приведёт современную жительницу мегаполиса к желанному успеху в любовных связях и деловых контактах.Тип аромата: цветочныйНачальная нота: экзотические плоды личи и нежной фрезии. Нота сердца: магнолия, мандарин, перец. Конечная нота: жасмин, амбра, мускус.Этот аромат понравится тем, кто предпочитает:  Miracle (Lancome). Ароматизирующее масло для женщин DESIRE mini №11 Miracle (5 мл).  Ароматизирующее масло для женщин DESIRE mini №11 Miracle (5 мл). Модель: rosparf-043-11. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Фалоимитатор из плотного высококачественного безопасного материала делает ощущения максимально реалистичными. Мощный мотор обеспечивает 10 функций интенсивной равномерной вибрации. Управления осуществляется с пультом дистанционного управления. Вибратор имеет мягкую округлую головку, гибкое покрытое венками тело, упругую естественной формы мошонку. Присоска в основании позволяет надежно закрепить игрушку на любой гладкой поверхности или использовать в качестве страпона. Для комфортности введения и получения наиболее приятных ощущений можно использовать смазку на водной основе.Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением игрушку необходимо хорошо просушить. В комплект входит специальный мешочек для хранения. Вибратор желательно держать отдельно от других силиконовых изделий. Не допускать попадание прямых солнечных лучей. Реалистичный вибратор на присоске Real Dildo (10 режимов).  Реалистичный вибратор на присоске Real Dildo (10 режимов). Модель: real-rv10037. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: REAL. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1059,34 +1093,44 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>ПВХ</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17.5</v>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>4.455</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.05</v>
+      </c>
       <c r="AH5" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1119,28 +1163,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>РЕАЛКАПС</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Возбуждающие капсулы для мужчин Пауэр</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-3579-1299</t>
+          <t>id-21463-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1156,17 +1200,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3579/3579_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21463/21463_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21463/21463_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21463/21463_3_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для современной и сексуальной женщины, которая сочетает в себе чувственность и холодную красоту. Эта женщина точно знает, что хочет, и чтобы получить желаемое она не остановится ни перед чем. Страстный и удивительно женственный, словно искрящийся чувственностью парфюм.Тип аромата: цветочно-фруктовыйНачальная нота: груша и чёрная смородина, красный апельсин и мандарин. Нота сердца: гибискус, фрезия, тубероза и цветок имбиря. Конечная нота: бурбонская ваниль, калифорнийский кедр, сандаловое дерево, мускус.Этот аромат понравится тем, кто предпочитает: Deep Red (Hugo Boss). Ароматизирующее масло для женщин DESIRE mini №14 Deep Red (5 мл).  Ароматизирующее масло для женщин DESIRE mini №14 Deep Red (5 мл). Модель: rosparf-043-14. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Тонизирующее, омолаживающее, общеукрепляющее, стимулирующее иммуномодулирующее средство, повышает работоспособность и лечит сексуальные расстройства. Сексуальные расстройства:витамины, входящие в состав препарата, стимулируют либидо и потенцию, что повышает качество и количество сперматозоидов у мужчин. У женщин регулирует овариальный цикл и предупреждает развитие процессов воспаления в органах половой системы, повышает плодовитость. Чрезвычайно полезен во время климакса и перед менструальным циклом.БАД, НЕ ЯВЛЯЕТСЯ ЛЕКАРСТВОМ. Возбуждающие капсулы для мужчин Пауэр Плюс Power Plus (20 капсул).  Возбуждающие капсулы для мужчин Пауэр Плюс Power Plus (20 капсул). Модель: realkap-66. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: РЕАЛКАПС. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1183,17 +1227,17 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1239,13 +1283,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>REALOV</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1255,12 +1299,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Женский стимулятор с голосовым</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-3580-1299</t>
+          <t>id-18393-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1276,57 +1320,69 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3580/3580_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18393/18393_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18393/18393_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18393/18393_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18393/18393_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18393/18393_6_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бодрящий и тонизирующий аромат, близок к аромату унисекс. Аромат для молодежи, для тех, кто оригинален и не следует общепринятым правилам, а действует согласно собственным желаниям. Свежий, дерзкий и искрящийся аромат.Тип аромата: ориентальный.восточныйНачальная нота: гардения, бергамот и лимон. Нота сердца: белый перец, роза и пралине. Конечная нота: сандаловое дерево и белый мускус.  Этот аромат понравится тем, кто предпочитает:  Oblique Play (Givenchy).Ароматизирующее масло для женщин DESIRE mini №15 Oblique (5 мл).  Ароматизирующее масло для женщин DESIRE mini №15 Oblique (5 мл). Модель: rosparf-043-15. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Женский стимулятор с голосовым управлением и синхронизацией со смартфоном LYDIA I (более 10 режимов).  Женский стимулятор с голосовым управлением и синхронизацией со смартфоном LYDIA I (более 10 режимов). Модель: realov-h002-01. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: REALOV. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.875</v>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.6</v>
+      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1339,7 +1395,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, трусики, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1359,28 +1415,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Вагинально-анальные шарики HAPPY BALLS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-3581-1299</t>
+          <t>id-4043-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1396,57 +1452,67 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3581/3581_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4043/4043_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4043/4043_1_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Она ценит каждое мгновение жизни, она умна и непосредственна. Интригующий парфюм с молодым и современным характером. Раскрывается очень легко и романтично, соблазняя и очаровывая всех окружающих.Тип аромата: цветочныйНачальная нота: цветки апельсинового дерева, листья кориандра, кардамон. Нота сердца: жасмин, листья фиалки. Конечная нота: сандал, мускус, ваниль.Этот аромат понравится тем, кто предпочитает:  Touch of Pink (Lacoste). Ароматизирующее масло для женщин DESIRE mini №16 Lacoste Pink (5 мл).  Ароматизирующее масло для женщин DESIRE mini №16 Lacoste Pink (5 мл). Модель: rosparf-043-16. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Вагинально-анальные шарики HAPPY BALLS.  Вагинально-анальные шарики HAPPY BALLS. Модель: reevibe-17-02blk. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Шарики &gt; Вагинальные со смещенным центром тяжести. Шарики &gt; Анальные. Цвет: черный. Материал: TPE (термоэластопласт). Батареек нет в комплекте. Бренд: REE. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Нидерланды</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>TPE (термоэластопласт)</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>20</v>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1479,28 +1545,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Розовый стимулятор ануса Love Beads</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-3583-1299</t>
+          <t>id-9309-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1516,57 +1582,67 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3583/3583_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9309/9309_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9309/9309_1_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот аромат понравится тем, кто предпочитает:  Love in Paris от Nina Ricci. Букет этих духов великолепен и сам по себе, но феромоны делают его понастоящему соблазнительным! DESIRE PHEROMONE №18 с феромонами для женщин созданы для тех, кто ценит каждую секунду своей жизни и превращает их в нескончаемое наслаждение. Ароматизирующее масло для женщин DESIRE mini №18 N.Ricci Love in Paris (5 мл).  Ароматизирующее масло для женщин DESIRE mini №18 N.Ricci Love in Paris (5 мл). Модель: rosparf-043-18. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Розовый стимулятор ануса Love Beads.  Розовый стимулятор ануса Love Beads. Модель: reevibe-350018. Секс-игрушки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: розовый. Материал: ПВХ. Батареек нет в комплекте. Бренд: REE. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Нидерланды</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>ПВХ</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>27.5</v>
+      </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.55</v>
+      </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1599,13 +1675,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RENE ROFE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1615,16 +1691,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Трусы с вырезом на попе ML</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-3584-1299</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>id-9112-1299</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>99999</v>
@@ -1636,44 +1720,44 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3584/3584_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9112/9112_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9112/9112_2_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для темпераментных, эмоциональных и смелых женщин, стремящихся к свободе и раскрепощённости. Яркий, зажигательный аромат вобрал в себя впечатления весёлых вечеринок в Рио-де-Жанейро. Искрящийся, сексуальный аромат для яркой и экспрессивной женщины.Тип аромата: цитрусовыйНачальная нота: мандарин, ананас, папайя. Нота сердца: персик, кокосовое молоко. Конечная нота: сандаловое дерево.Этот аромат понравится тем, кто предпочитает:  Rockin Rio (Escada). Ароматизирующее масло для женщин DESIRE mini женские №19 Escada Rockin' Rio (5 мл).  Ароматизирующее масло для женщин DESIRE mini женские №19 Escada Rockin' Rio (5 мл). Модель: rosparf-043-19. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Трусы с вырезом на попе ML.  Трусы с вырезом на попе ML. Модель: renerofe-751065ml. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: телесный. Материал: 64% нейлон, 19% спандекс, 17% полиэстер. Батареек нет в комплекте. Бренд: RENE ROFE. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>64% нейлон, 19% спандекс, 17% полиэстер</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1719,13 +1803,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RENE ROFE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1735,16 +1819,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Трусы с вырезом на попе SM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-3566-1299</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>id-9107-1299</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>42-46</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>99999</v>
@@ -1756,44 +1848,44 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3566/3566_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9107/9107_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9107/9107_2_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Ароматизирующее масло для женщин DESIRE mini №1 J'adore (5 мл).  Ароматизирующее масло для женщин DESIRE mini №1 J'adore (5 мл). Модель: rosparf-043-1. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Трусы с вырезом на попе SM.  Трусы с вырезом на попе SM. Модель: renerofe-751065sm. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: телесный. Материал: 64% нейлон, 19% спандекс, 17% полиэстер. Батареек нет в комплекте. Бренд: RENE ROFE. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>64% нейлон, 19% спандекс, 17% полиэстер</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1839,28 +1931,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>РИА ПАНДА</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Капсулы для мужчин ПРОСТАТИНОЛ 30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-3585-1299</t>
+          <t>id-11334-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1876,17 +1968,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3585/3585_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11334/11334_1_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ощущение молодости, гармонии и женственности заставляет влюбиться в аромат и наслаждаться им долгие годы. Даёт заряд живительной энергии и искрящуюся звучанием свежесть. Наполняет жизнь праздником, меняет настроение, даёт почувствовать себя настоящей женщиной.Тип аромата: цветочно-фруктовыйНачальная нота: мята, зеленая сирень, мандарин. Нота сердца: водяная лилия, амарилис, белый персик. Конечная нота: ваниль, голубой кедр.Этот аромат понравится тем, кто предпочитает:  L'eau par Kenzo (Kenzo). Ароматизирующее масло для женщин DESIRE mini №20 Kenzo L'eau par (5 мл).  Ароматизирующее масло для</t>
+          <t xml:space="preserve">Компоненты комплекса ПРОСТАТИНОЛ способствуют нормализации функционального состояния мужской половой системы, способствуют облегчению симптомов простатита, снижают риск возникновения простатита. Капсулы для мужчин ПРОСТАТИНОЛ (30 капсул).  Капсулы для мужчин ПРОСТАТИНОЛ (30 капсул). Модель: riapanda-12523. Косметика, препараты. Препараты и возбудители &gt; Предотвращение простатита. Батареек нет в комплекте. Бренд: РИА ПАНДА. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1903,17 +1995,17 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>30 * 0,5 г</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30 * 0,5</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>30 * 0,5 г</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1959,28 +2051,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>РИА ПАНДА</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Капсулы для мужчин зрелого и пожилого</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-3567-1299</t>
+          <t>id-7569-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1996,44 +2088,40 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3567/3567_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7569/7569_1_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аромат, которым женщина может пользоваться где захочет и когда захочет: днём и вечером, в городе и за городом, на деловой встрече и романтическом свидании, на работе и на отдыхе. Современный и универсальный стиль.Тип аромата: цветочно-фруктовыйНачальная нота: цветы камелии, цветущая яблоня, чёрная смородина. Нота сердца: мандарин, зелёная листва, мята. Конечная нота: жимолость, фиалка, жасмин, дакотская лилия, роза, лепестки магнолии.Этот аромат понравится тем, кто предпочитает:  Tommy Girl (это первые женские духи американского дизайнера Tommy Hilfiger).Ароматизирующее масло для женщин DESIRE mini №2 Tommy Girl (5 мл).  Ароматизирующее масло для женщин DESIRE mini №2 Tommy Girl (5 мл). Модель: rosparf-043-2. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Капсулы Тестогенон способствуют синтезу тестостерона. Компоненты комплекса способствуют сохранению и поддержанию здоровья мужской половой системы в зрелом и пожилом возрасте. Биологически активные вещества препарата Тестогенон способствуют сохранению и поддержанию на оптимальном уровне функциональной активности мужской половой системы в зрелом и пожилом возрасте, облегчению симптомов мужского климактерического периода, профилактике эректильной дисфункции различного происхождения, улучшению качественных показателей спермы, восстановлению функций семенников при бесплодии, улучшению общего самочувствия, повышению либидо, умственной и физической работоспособности. При приеме Тестогенона уменьшается утомляемость, раздражительность и потоотделение. Рекомендованы в качестве биологически активной добавки к пище  источника витаминов, йохимбина, панаксозидов. Капсулы для мужчин зрелого и пожилого возраста ТЕСТОГЕНОН (30 капсул).  Капсулы для мужчин зрелого и пожилого возраста ТЕСТОГЕНОН (30 капсул). Модель: riapanda-12524. Косметика, препараты. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Улучшение качества спермы. Батареек нет в комплекте. Бренд: РИА ПАНДА. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -2059,7 +2147,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>30 капсул по 0,5 грамм</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2079,28 +2167,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>РИА ПАНДА</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Капсулы для мужчин АЛИКАПС (12 капсул)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-3568-1299</t>
+          <t>id-7571-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2116,44 +2204,40 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3568/3568_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7571/7571_1_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный и роскошный аромат, он понравится уверенным в себе обольстительницам, чья грация и изящность с лёгкостью покоряют мужские сердца. Подчеркните своё истинное я.Тип аромата: цветочныйНачальная нота: жасмин, бергамот. Нота сердца: гардения, ландыш, лилия. Конечная нота: сатиновое и сандаловое дерево.Этот аромат понравится тем, кто предпочитает: 212 SEXY (С.Herrera). Ароматизирующее масло для женщин DESIRE mini №3 C.Herrera 212 (5 мл).  Ароматизирующее масло для женщин DESIRE mini №3 C.Herrera 212 (5 мл). Модель: rosparf-043-3. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Показания к применению:БАД АлиКапс рекомендуется при эректильной дисфункции у взрослых мужчин любого возраста.Состав и форма выпуска:Пасак Буми экстракт (экстракт эврикомы длиннолистной), пальма ползучая (экстракт карликовой пальмы), экстракт листа Дамианы.Фармакологическое действие:Экстракт эврикомы длиннолистной  это научное название малазийского растения, которое местные жители называют Корень Али. В Азии это растение многие годы использовалось для повышения полового влечения.Экстракт карликовой пальмы  плоды этого дерева при регулярном применении стимулируют работу гормональной системы, в том числе половых желез, увеличивают продукцию семенной жидкости, повышают половое влечение и оказывают противовоспалительное действие при инфекциях мочеполовой системы.Экстракт листа Дамианы  индейцы Майя называли экстракт дамианы Капли любви. Оказывает возбуждающее действие, усиливая половое влечение.Рекомендация по применению и дозировке:Курсовой приём: Принимать мужчинам по 1 капсуле в день в первой половине дня во время еды, запивая водой. Курс приёма  восемь дней. Разовый приём: Особенность АЛИКАПС в том, что его необязательно принимать курсами. Возможен приём по требованию, то есть, в случае необходимости. Например, если одолела усталость, а впереди романтическая встреча, можно принять сразу две капсулы препарата, и эффект не заставит себя долго ждать!.Капсулы для мужчин АЛИКАПС (12 капсул).  Капсулы для мужчин АЛИКАПС (12 капсул). Модель: riapanda-12543. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Улучшение качества спермы. Батареек нет в комплекте. Бренд: РИА ПАНДА. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -2179,7 +2263,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>12 капсул</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2199,13 +2283,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Расширители гинекологические</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RIMBA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2215,16 +2299,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Мегагигантское вагинальное</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-3571-1299</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>id-19446-1299</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>99999</v>
@@ -2236,44 +2328,44 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3571/3571_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3571/3571_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19446/19446_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19446/19446_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19446/19446_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19446/19446_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19446/19446_5_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">В этом прозрачном аромате свежести все ноты настолько гармонично переплетаются, что создаётся иллюзия погружения в прохладную воду, ароматизированную листочками зелёного чая. Прохлада, чистота и энергия ? вот 3 составляющих этого парфюма.Тип аромата: цитрусовыйНачальная нота: лимон, апельсин, бергамот, перечная мята, несущая мощный заряд энергии. Нота сердца: зелёный чай, жасмин, сем</t>
+          <t xml:space="preserve">.Мегагигантское вагинальное зеркало-расширитель Speculum.  Мегагигантское вагинальное зеркало-расширитель Speculum. Модель: rimba-RI7276. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Цвет: стальной. Материал: металл. Батареек нет в комплекте. Бренд: RIMBA. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>металл</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -2299,7 +2391,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>упаковка- полиэтиленовый пакет</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2319,28 +2411,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Презервативы Ritex IDEAL экстра мягкие</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-3572-1299</t>
+          <t>id-21471-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2356,48 +2448,52 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3572/3572_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21471/21471_1_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские с феромонами. Неожиданный союз природы и города, которого так не хватало современным горожанкам, вечно спешащим по своим неотложным делам. Энергичный, поэтичный, оптимистичный и смелый аромат парфюма не должен остаться без внимания. Необыкновенно яркий и дразнящий аромат.Тип аромата: цветочныйНачальная нота: пармская фиалка, дикий боярышник, чёрная смородина, болгарская роза. Нота сердца: жасмин, бурбонская ваниль, белый мускус, опопонакс. Конечная нота: тёплый светлый шлейф гедиона и циклозаль придаёт композиции чувственность и неординарность.Этот аромат понравится те</t>
+          <t xml:space="preserve">Презервативы Ritex Ideal увлажнены на 50% больше, чем стандартные презервативы Ritex. Это улучшает скольжение и делает занятия любовью более захватывающими и чувственными. Кроме того презервативы Ritex IDEAL являются идеальными презервативами для любого типа кожи и гарантируют приятные и мягкие ощущения на коже. Презервативы Ritex IDEAL экстра мягкие с дополнительной смазкой (3 шт).  Презервативы Ritex IDEAL экстра мягкие с дополнительной смазкой (3 шт). Модель: ritex-0282. Презервативы. Презервативы &gt; Обычные. Цвет: нежно-розовый. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -2439,28 +2535,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Презервативы Ritex увеличенного размера</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-3573-1299</t>
+          <t>id-21470-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2476,48 +2572,52 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3573/3573_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21470/21470_1_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Неожиданный союз природы и города, которого так не хватало современным горожанкам, вечно спешащим по своим неотложным делам. Энергичный, поэтичный, оптимистичный и смелый аромат парфюма не должен остаться без внимания. Необыкновенно яркий и дразнящий аромат.Тип аромата: альдегидные, цветочные.Начальная нота: лимон, нероли, альдегидные аккорды, бергамот, иланг-иланг.Нота сердца: роза, корень ириса, ирис, ландыш, жасмин.Конечная нота: сандал, амбра, мускус, пачули, ваниль, ветивер, дубовый мох.Этот аромат понравится тем, кто предпочитает: Chanel No.5 (Chanel).Ароматизирующее масло для женщин DESIRE mini №8 Chanel №5 (5 мл).  Ароматизирующее масло для женщин DESIRE mini №8 Chanel №5 (5 мл). Модель: rosparf-043-8. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Важно найти правильный размер презерватива, так как только тогда он сможет обеспечить полную защиту. Размер презервативов Ritex ХХL составляет 55 мм в ширину и 200 мм - и это без растяжения. Ritex XXL идеальные презервативы для всех тех, кому недостаточно размера обычных презервативов и нужно больше комфорта.Большая ширина презерватива облегчает раскручивание и предотвращает повреждение презерватива. Кроме того, презервативы Ritex ХХL покрыты дополнительной смазкой для облегчения использования во время занятия любовью. Презервативы Ritex увеличенного размера XXL (3 шт).  Презервативы Ritex увеличенного размера XXL (3 шт). Модель: ritex-0283. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.05</v>
+      </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -2559,28 +2659,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для женщин DESIRE</t>
+          <t>Классические презервативы Ritex PR.1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-3574-1299</t>
+          <t>id-21475-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2596,48 +2696,52 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3574/3574_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21475/21475_1_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи из коллекции Редкая парфюмерия и винтаж (данный аромат в оригинале не выпускается больше производителями). Ничто не может подчеркнуть индивидуальный образ женщины лучше, чем уникальный аромат старинных духов  и сегодня подобная роскошь доступна, без преувеличения, любой представительнице прекрасного пола. Аромат манящий, загадочный, терпкий. Карамельная сладость необыкновенно очаровывает. Аромат замечательно по</t>
+          <t xml:space="preserve">Классические презервативы Ritex PR.1 - самые продаваемые презервативы из всей линейки Ritex. Нежная шелковистая поверхность и скользящая смазка создают приятное ощущение и усиливают чувствительность. Классические презервативы Ritex PR.1 (12 шт).  Классические презервативы Ritex PR.1 (12 шт). Модель: ritex-0287. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -2659,7 +2763,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>12 шт.</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2679,28 +2783,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Презервативы Ritex IDEAL экстра мягкие</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-3596-1299</t>
+          <t>id-21479-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2716,48 +2820,52 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3596/3596_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21479/21479_1_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственный и смелый аромат, подобный изменчивому океану, является отражением Вашей индивидуальности. Пряный кориандр и зелёные травяные аккорды придают парфюму особую свежесть и нежность. Однако в композиции присутствуют и динамические оттенки, которые подчёркиваются начальными нотами розмарина, лаванды, кориандра, мяты и флердоранжа. Сердечные ноты сандалового дерева, жасмина, герани и мха, заставляют надолго запомнить неповторимый аромат, достаточно лишь сделать один вдох. . Завершают коктейль ноты мускуса и серой амбры.Этот аромат понравится тем, кто предпочитает:  Cool Water (Davidoff), подчёркивает имидж делового человека. Аромат на каждый день. Ароматизирующее масло для мужчин DESIRE mini №11 Cool Water (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №11 Cool Water (5 мл). Модель: rosparf-044-11. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Презервативы Ritex Ideal увлажнены на 50% больше, чем стандартные презервативы Ritex. Это улучшает скольжение и делает занятия любовью более захватывающими и чувственными. Кроме того презервативы Ritex IDEAL являются идеальными презервативами для любого типа кожи и гарантируют приятные и мягкие ощущения на коже. Презервативы Ritex IDEAL экстра мягкие с дополнительной смазкой (12 шт).  Презервативы Ritex IDEAL экстра мягкие с дополнительной смазкой (12 шт). Модель: ritex-0288. Презервативы. Презервативы &gt; Обычные. Цвет: нежно-розовый. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
@@ -2779,7 +2887,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>12 шт.</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2799,13 +2907,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2815,12 +2923,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Презервативы Ritex увеличенного размера</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-3597-1299</t>
+          <t>id-21478-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2836,48 +2944,52 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3597/3597_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21478/21478_1_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Легки как воздух, они возвышают и окрыляют, заставляют всё внутри сжиматься и трепетать. Обладатель духов независим, его слово много значит и не может быть оспорено, он лидер, и остаётся таковым даже в отношениях с противоположным полом. Это новый взгляд на жизнь. Аромат, который освобождает Вас от оков условности и расши</t>
+          <t xml:space="preserve">Важно найти правильный размер презерватива, так как только тогда он сможет обеспечить полную защиту. Размер презервативов Ritex ХХL составляет 55 мм в ширину и 200 мм - и это без растяжения. Ritex XXL идеальные презервативы для всех тех, кому недостаточно размера обычных презервативов и нужно больше комфорта.Большая ширина презерватива облегчает раскручивание и предотвращает повреждение презерватива. Кроме того, презервативы Ritex ХХL покрыты дополнительной смазкой для облегчения использования во время занятия любовью. Презервативы Ritex увеличенного размера XXL (10 шт).  Презервативы Ritex увеличенного размера XXL (10 шт). Модель: ritex-0289. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.05</v>
+      </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -2899,7 +3011,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 шт.</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -2919,28 +3031,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Презервативы Ritex LUST с кольцами и</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-3586-1299</t>
+          <t>id-21474-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2956,48 +3068,52 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3586/3586_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21474/21474_1_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обладатель этого аромата - мужчина, покоритель каменных джунглей большого города, который любой ценой жаждет добиться совершенства, достичь вершины успеха во всём: спорте, карьере и любви. Основа композиции - цитрусовые нотки: грейпфрут и можжевельник. В ноте сердца древесный мох сандалового дерева и свежая зелень. В конечной ноте - смесь пряностей, добавляющих композиции восточную таинственность: мускатный орех, перец оттенки ладана и белого мускуса. Этот аромат понравится тем, кто предпочитает:  Higher (Christian Dior) - жгучий мужской аромат унесёт Вас на вершину славы. Ароматизирующее масло для мужчин DESIRE mini №1 Higher Dior (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №1 Higher Dior (5 мл). Модель: rosparf-044-1. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Больше разнообразия и дополнительной стимуляции? Никаких проблем с нашим презервативом Ritex LUST. Ritex LUST - это ребристый и шипованный презерватив, который дополнительно стимулирует обоих партнеров. Нежная, но выраженная структура точек и ребер позволяет ВАМ испытать это особенно интенсивно во время занятий любовью. Но также почему пользоваться презервативом LUST особенно хочется: благодаря идеальной форме самого презерватива Ritex, которая идеально адаптируется к каждому сантиметру, каждой ямке и, следовательно, он еще более чувствителен. Влажное смазочное покрытие обеспечивает нежную игру любви.Благодаря своей тонкой текстуре и приятному запаху, презервативы Ritex LUST делают каждое наслаждение еще более чувственным. Презервативы Ritex LUST с кольцами и пупырышками (8 шт).  Презервативы Ritex LUST с кольцами и пупырышками (8 шт). Модель: ritex-0290. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6.05</v>
+      </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -3019,7 +3135,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>8 шт</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3039,13 +3155,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3055,12 +3171,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Презервативы Ritex FEELING</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-3587-1299</t>
+          <t>id-21477-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -3076,48 +3192,52 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3587/3587_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21477/21477_1_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Активный образ жизни, увлечение спортом и стремление всегда быть в форме - таков облик аромата с истинно мужским характером, построенный на сочетании древесных и кожаных оттенков, рисует образ деловых и предприимчивых людей, которые остаются чувствительными к красоте. Верхние ноты: бергамот, лимон, мята, полынь, мандарин, нероли. Ноты сердца: цикламен, имбирь, морские водоросли, роза, герань, палисандр. Конечная нота: сандал, амбра, кедр, мускус.Этот аромат понравится тем, кто предпочитает:  Polo Sport (Ralph Lauren). Ароматизирующее масло для мужчин DESIRE mini №2 Polo Sport (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №2 Polo Sport (5 мл). Модель: rosparf-044-2. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Специальная форма для плотной посадки и интимного удовольствия. Презервативы Ritex FEELING стимулируют обоих партнеров. Контурная форма обеспечивает интенсивное и особо интимное чувство. Специальная форма презервативов Ritex FEELING делает их более плотными в правильных местах - для длительной и интенсивной любовной игры.Также особая контурная форма обеспечивает интенсивный контакт с кожей. Оба партнера больше стимулируются, а также могут наслаждаться приятным, приятным ароматом презервативов Ritex FEELING. Презервативы Ritex FEELING анатомической формы (8 шт).  Презервативы Ritex FEELING анатомической формы (8 шт). Модель: ritex-0291. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -3139,7 +3259,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>8 шт.</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3159,13 +3279,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3175,12 +3295,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Ультра тонкие презервативы Ritex Extra</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-3588-1299</t>
+          <t>id-21476-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3196,48 +3316,52 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3588/3588_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21476/21476_1_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантный и современный аромат, объединяющий ноты свежести с древесными и пряными аккордами. Он привлекает силой и чистотой своего аромата, заряжает энергией и не перестает радовать своей оригинальностью. Свежие искрящиеся верхние ноты бергамота, лимона и эстрагона сменяются цветочным сердцем, во главе которого водяная лилия. Древесный шлейф кедра, масла ветивера и сандала с лёгким оттенком мускуса плавно завершает аромат.Этот аромат понравится тем, кто предпочитает:  L'Eau D'Issey (Issey Miyake). Ароматизирующее масло для мужчин DESIRE mini №3 L'eau D'issey (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №3 L'eau D'issey (5 мл). Модель: rosparf-044-3. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Презервативы Ritex EXTRA Thin с наименьшей толщиной латекса всех презервативов Ritex и в тоже время такие же прочные - это современный результат десятилетий производственного опыта и последовательного продвижения в этой области. Высокое качество для естественного ощущения, Натурально, конечно, как и сама любовь. Ультра тонкие презервативы Ritex Extra Thin (8 шт.).  Ультра тонкие презервативы Ritex Extra Thin (8 шт.). Модель: ritex-0292. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -3259,7 +3383,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>8 шт.</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3279,28 +3403,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Микс презервативов Ritex SORTIMENT 10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-3590-1299</t>
+          <t>id-21480-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3316,48 +3440,52 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3590/3590_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21480/21480_1_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Предназначен для молодого, современного, энергичного и уверенного в себе мужчины, который живёт в мире предельных скоростей и ост</t>
+          <t xml:space="preserve">Микс презервативов Ritex SORTIMENT включает:- 2 классических презерватива Ritex PR.1.- 2 презерватива IDEAL экстра мягкие с дополнительной смазкой.- 2 ультра тонких презерватива Extra Thin.- 2 презерватива LUST с кольцами и пупырышками.- 2 чувствительных презерватива Magic Sensitive. Микс презервативов Ritex SORTIMENT (10 шт).  Микс презервативов Ritex SORTIMENT (10 шт). Модель: ritex-0293. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>6.05</v>
+      </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
@@ -3379,7 +3507,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 шт.</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3399,13 +3527,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3415,12 +3543,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Классические презервативы RITEX RR.1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-3591-1299</t>
+          <t>id-27276-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3436,51 +3564,57 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3591/3591_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27276/27276_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27276/27276_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27276/27276_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27276/27276_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27276/27276_1_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Противоречивый аромат со множеством граней. Он одновременно мощный и нежный, свежий и тёплый. Дорогой, шикарный, соблазняющий, тревожный, волнующий, аромат страсти и вожделения, глубокий, горячий, головокружительный, яркий, оригинальный. .Многие мужчины от него просто без ума! Но этот аромат индивидуален, он по-разному раскрывается на каждом его обладателе. В начальных нотах композиции звучат ароматы чёрной смородины, аниса, мандарина, лаванды и бадьяна, постепенно сменяясь более глубокими нотами сердца ─ галангой, геранью, имбирём и сычуанским перцем. Завершает аромат сочетание благородного атласского кедра, бурбонской ванили и пачули.Этот аромат понравится тем, кто предпочитает Opium (Yves Saint Laurent) ─ является самым верным средством обольщения. Ароматизирующее масло для мужчин DESIRE mini №6 Opium (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №6 Opium (5 мл). Модель: rosparf-044-6. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Презервативы Ritex RR.1, классические, латекс, 18.5 смПрезервативы Ritex RR.1 - ваша невесомая защита, с которой любовь остается какой она должна быть: интенсивной, чувственной и естественной! Ультралегкие презервативы, которые не ограничивают вас в любви. С ними разница с ним и без него едва ли ощущается! Нежнейшая шелковистая текстура презерватива гарантирует вам длительное и комфортное движение во время занятия любовью. Поверхность Ritex RR.1 не ограничивает, а помогает усиливать естественные ощущения Почему стоит купить Презервативы Ritex RR.1:Отсутствие запаха резиныЕстественные ощущенияТонкие, невесомые и незаметныеКачественная нежная смазкаНадежность и прочностьОтсутствие аллергии и дискомфорта Презервативы Ritex - это премиальная продукция из натурального латекса, произведенная в Германии. Вся линейка отвечает нормам и имеет подтвержденное качество в соответствии с международными стандартами.Презервативы Ritex RR.1 - максимальный комфорт и естественность без преград!.Классические презервативы RITEX RR.1 (10 шт).  Классические презервативы RITEX RR.1 (10 шт). Модель: ritex-2007. Пре</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="Y25" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
@@ -3499,7 +3633,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 шт</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3519,13 +3653,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>RITEX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3535,12 +3669,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Презервативы Ritex IDEAL экстра мягкие</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-3592-1299</t>
+          <t>id-27205-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3556,48 +3690,52 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3592/3592_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27205/27205_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27205/27205_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27205/27205_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27205/27205_4_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Восхитительный и удивительно естественный аромат для настоящего мужчины. Духи раскрываются свежими и еле уловимыми нотками. Но, потом аромат становится намного интенсивнее, показывая и характеризуя своим благоуханием настоящую мужскую сущность. Начальная нота: экстракт листьев смоковницы, базилика, сицилийского мандарина. Нота сердца: жасмин, шалфей, мох. Заключительная нота: кора сандалового дерева, пустынного атласского кедра, бобы тонка.Этот аромат понравится тем, кто предпочитает:  Dune (Christian Dior)  покоряет своей прохладой, свежестью и гармоничностью. Ароматизирующее масло для мужчин DESIRE mini №7 Dune (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №7 Dune (5 мл). Модель: rosparf-044-7. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Презервативы Ritex IDEAL с дополнительной смазкой, латекс, 18.5 смПрезервативы Ritex - это премиальная продукция из натурального латекса, произведенная в Германии. Вся линейка отвечает нормам и имеет подтвержденное качество в соответствии с международными стандартами.Презервативы Ritex IDEAL с дополнительной смазкой обеспечивают комфортное, длительное и интенсивное скольжение.Презервативы Ritex IDEAL гарантируют влажность и нежность. С помощью увеличенного количества смазки - на 50% по сравнению с другими презервативами Ritex, заниматься любовью стало еще более увлекательно и чувственно. Качество смазки приятно удивляет - не жирная и не липкая, не оставляет следов и легко смывается. А нежно-розовый цвет презервативов и отсутствие запаха усиливает естественные ощущения.Презервативы Ritex IDEAL - просто будь собой. Презервативы Ritex IDEAL экстра мягкие с дополнительной смазкой (10 шт).  Презервативы Ritex IDEAL экстра мягкие с дополнительной смазкой (10 шт). Модель: ritex-2008. Презервативы. Презервативы &gt; Обычные. Цвет: нежно-розовый. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: RITEX. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -3619,7 +3757,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 презервативов</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3639,13 +3777,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3655,12 +3793,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ароматизирующее масло для мужчин DESIRE</t>
+          <t>Перезаряжаемый стимулятор простаты</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-3594-1299</t>
+          <t>id-18063-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3676,44 +3814,44 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3594/3594_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18063/18063_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18063/18063_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18063/18063_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18063/18063_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18063/18063_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18063/18063_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18063/18063_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18063/18063_8_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Запоминающийся и провокационный парфюм. Настоящий гимн мужской самостоятельности и духу исследователя и первооткрывателя. В основе композиции загадочная серая амбра, мягко и смело сплетающаяся с нотами ветивера, голубой мяты и зелёного дубового мха. Чувственность и откровенность аромата тонко завуалирована благодаря освежающей прохладе мятного экстракта. Трепетную мягкость и нежность, спокойствие и уверенность придаёт согревающий сердце ветивер. Мшисто-древесный шлейф создаёт ощущение лёгкости и свободы.Этот аромат понравится тем, кто предпочитает:  Ultraviolet Man (Paco Rabanne), окутает атмосферой мужественности и шарма, обратит внимание на себя всех окружающих. Ароматизирующее масло для мужчин DESIRE mini №9 Ultraviolet (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №9 Ultraviolet (5 мл). Модель: rosparf-044-9. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Перезаряжаемый стимулятор простаты Cheeky-Boy Intense (10 режимов).  Перезаряжаемый стимулятор простаты Cheeky-Boy Intense (10 режимов). Модель: rocksoff-10igcbbk. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Элитная продукция &gt; Массажеры простаты. Элитная продукция. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -3723,10 +3861,18 @@
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>2.25</v>
+      </c>
       <c r="AH27" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3739,7 +3885,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор простаты с виброэлементом,USB кабель</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3759,28 +3905,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ароматизаторы эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Автомобильный ароматизатор с феромонами</t>
+          <t>Классический водонепроницаемый вибратор</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-13436-1299</t>
+          <t>id-13676-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3796,30 +3942,34 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13436/13436_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13676/13676_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13676/13676_1_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дезодорант воздуха Desire Pheromone  с феромонами мужской для автомобиля и помещений, аромат ЦИТРУСЦИТРУС - букет из сочных фруктов: апельсинов, мандаринов и лайма, создаст прохладу и поднимет настроение Вам и окружающим в кабинете, салоне автомобиля или комнате. Максимальный эффект достигается в малопроветриваемом помещении и в сочетании с духами и косметикой Desire Pheromone. И только Вы будете знать, что вместе с ароматом благоухают феромоны, создавая особую атмосферу влечения и сексуального желания. В зависимости от площади помещения рекомендуется применение одновременно нескольких дезодорантов. Срок действия аромата до 8 недель. Не токсичен. Имеет удобное крепление (пластиковый крючок).Инструкция по применению:1. Откройте целлофан согласно разметке сверху пакета.2. Достаньте крючок-крепление.3. Повесьте освежитель в удобном месте.4. Удаляйте часть упаковки по мере выветривания аромата.5. По необходимости или в целях маскировки, удалите упаковку перед планируемой ситуацией. Автомобильный ароматизатор с феромонами для привлечения женщин Desire (цитрус).  Автомобильный ароматизатор с феромонами для привлечения женщин Desire (цитрус). Модель: rosparf-054-5. Косметика, препараты. Смазки, косметика &gt; Ароматизаторы воздуха. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Классический водонепроницаемый вибратор RO-120 mm (10 режимов).  Классический водонепроницаемый вибратор RO-120 mm (10 режимов). Модель: rocksoff-10ro0120ch. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Женские стимуляторы &gt; Вибромассажеры. Цвет: серебряный. Материал: пластик. AAA x 2 шт (в комплекте)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
@@ -3834,15 +3984,25 @@
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="Y28" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>12</v>
+      </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
+      <c r="AF28" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2.4</v>
+      </c>
       <c r="AH28" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3855,7 +4015,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3875,28 +4035,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Гель-смазка с феромонами для женщин</t>
+          <t>Мощный классический вибратор RO-160 mm</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-3467-1299</t>
+          <t>id-13673-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3912,17 +4072,17 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3467/3467_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3467/3467_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13673/13673_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13673/13673_1_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант (смазка) DESIRE PHEROMONE с увлажняющим и смягчающим эффектом. Заменяет естественную смазку во время интимных отношений, обеспечивая лёгкое скольжение для достижения максимального наслаждения. Производит натуральное впечатление увлажнения и, благодаря феромонам, возбуждает обоих партнёров. Прекрасно ухаживает за кожей интимных мест. Использование лубриканта (смазки) с феромонами придаст вашим отношениям естественность и раскованность. Отличается уникальным составом на высококачественной водной основе. Не имеет противопоказаний! Гипоаллергенен.Абсолютно прозрачен и не имеет специфического запаха. Наносится во время полового акта на женские половые органы. Может применяться при использовании средств из резины, латекса, пластмассы и легко удаляется. Флакон с дозатором удобен и экономичен в использовании. Гель-смазка с феромонами для женщин DESIRE (60 мл).  Гель-смазка с феромонами для женщин DESIRE (60 мл). Модель: rosparf-056. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Мощный классический вибратор RO-160 mm (10 режимов).  Мощный классический вибратор RO-160 mm (10 режимов). Модель: rocksoff-1260. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: малиновый. Материал: velvet пластик (бархатистая поверхность). AA x 2 шт (в комплекте)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3935,34 +4095,44 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>velvet пластик (бархатистая поверхность)</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="Y29" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>16.5</v>
+      </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>2.9</v>
+      </c>
       <c r="AH29" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3995,13 +4165,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4011,12 +4181,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Гель-смазка с феромонами для мужчин</t>
+          <t>Анальная втулка с кольцом на пенис и</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-3471-1299</t>
+          <t>id-13674-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4032,17 +4202,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3471/3471_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3471/3471_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13674/13674_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13674/13674_1_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель с феромонами DESIRE с увлажняющим, смягчающим эффектом предназначен для использования во время интимных отношений. Использование геля с феромонами усиливает и продлевает удовольствие, заменяет натуральную смазку, способствует более легкому скольжению. Гель отличается уникальным составом на высококачественной водной основе, совместим с презервативом и другими изделиями из латекса. Гель-смазка с феромонами для мужчин DESIRE (40 мл).  Гель-смазка с феромонами для мужчин DESIRE (40 мл). Модель: rosparf-058. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Анальная втулка с кольцом на пенис и мошонку RO-ZEN (7 режимов).  Анальная втулка с кольцом на пенис и мошонку RO-ZEN (7 режимов). Модель: rocksoff-1291. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон. AAA x 1 шт (в комплекте)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -4055,34 +4225,44 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>высококачественный силикон</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>40 мл</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>40 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="Y30" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>7</v>
+      </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
+      <c r="AF30" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AH30" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4115,28 +4295,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Гель-смазка с феромонами для мужчин</t>
+          <t>Массажер простаты со стимуляцией</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-3470-1299</t>
+          <t>id-5413-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4152,17 +4332,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3470/3470_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3470/3470_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5413/5413_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5413/5413_3_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель с феромонами DESIRE с увлажняющим, смягчающим эффектом предназначен для использования во время интимных отношений. Использование геля с феромонами усиливает и продлевает удовольствие, заменяет натуральную смазку, способствует более легкому скольжению. Гель отличается уникальным составом на высококачественной водной основе, совместим с презервативом и другими изделиями из латекса. Гель-смазка с феромонами для мужчин DESIRE (60 мл).  Гель-смазка с феромонами для мужчин DESIRE (60 мл). Модель: rosparf-059. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Массажер простаты со стимуляцией мошонки RUDE-BOY (7 режимов).  Массажер простаты со стимуляцией мошонки RUDE-BOY (7 режимов). Модель: rocksoff-271114. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон. AAA x 1 шт (в комплекте)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4175,21 +4355,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>высококачественный силикон</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -4199,10 +4379,18 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2.7</v>
+      </c>
       <c r="AH31" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4235,28 +4423,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Гель-смазка с феромонами для мужчин</t>
+          <t>Водонепроницаемый вибратор Grey Steel</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-3469-1299</t>
+          <t>id-19337-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4272,17 +4460,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3469/3469_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3469/3469_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19337/19337_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19337/19337_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19337/19337_3_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель с феромонами DESIRE с увлажняющим, смягчающим эффектом предназначен для использования во время интимных отношений. Использование геля с феромонами усиливает и продлевает удовольствие, заменяет натуральную смазку, способствует более легкому скольжению. Гель отличается уникальным составом на высококачественной водной основе, совместим с презервативом и другими изделиями из латекса. Гель-смазка с феромонами для мужчин DESIRE (100 мл).  Гель-смазка с феромонами для мужчин DESIRE (100 мл). Модель: rosparf-060. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Водонепроницаемый вибратор Grey Steel (50 режимов).  Водонепроницаемый вибратор Grey Steel (50 режимов). Модель: rocksoff-50ro160gm. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: серый хромированный. Материал: пластик. AA x 2 шт (в комплекте)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4295,34 +4483,44 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
+      <c r="Y32" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>16.3</v>
+      </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
+      <c r="AF32" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>3.1</v>
+      </c>
       <c r="AH32" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4355,28 +4553,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Стимулятор оргазма Exta-Z 1,5 мл без</t>
+          <t>Большой стимулятор простаты Big Boy 7</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-3489-1299</t>
+          <t>id-16090-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4392,17 +4590,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3489/3489_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16090/16090_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16090/16090_1_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Единственное натуральное средство для наружнего применения, с помощью которого и мужчина, и женщина могут испытать фееричный оргазм и значительно продлить приятные ощущения! НЕ имеет аналога! Состоит из натуральных компонентов, это: органическое масло бурачника, масло примулы вечерней, экстракт дудника (ангелика), экстракт колеуса, эфирное масло иланг-иланга, масло тимьяна обыкновенного, масло чайного дерева, аскорбиновая кислота. При регулярном применении у мужчин отмечается увеличение полового органа, усиление потенции и глубины оргазма. Женщинам рекомендуется курсовое применение при аноргазмии и фригидности. При длительном применении нормализуется микрофлора влагалища (начальная стадия грибковых заболеваний, кандидоз, т.е. молочница). Возможно применение в качестве смазывающего средства, способствует повышению выделения секрета. Свыше 80% респонденток отмечают значительное улучшение качества интимной жизни, быстроту достижения оргазма, остроту оргастических ощущений, мультиоргазмы. Имеет пролонгированный эффект. Данные получены в результате исследований, проведённых на базе отделения сексопатологии НИИ Росздрава и независимых медицинских клиник. Препарат не имеет побочных действий, сертифицирован и клинически исследован, запатентован. Наносить на половые органы мужчины и женщины, с ЛЁГКИМ МАССАЖЕМ несколько минут. Рекомендуется начинать с минимальной дозы (1 капля), постепенно увеличивая ее, если эффект возбуждения выражен не достаточно. Противопоказаний к применению не выявлено. Возможна индивидуальная чувствительность. Совместим с любыми смазками и устройствами, призванными разнообразить и обострить сексуальные ощущения. Варианты применения (для женщин): 1. Для достижения клиторального оргазма нанести небольшое количество масла на клитор, мягкими массирующими движениями пальцев втирать (приблизительно от 5 до 15 минут) до получения оргазма. 2. Для достижения вагинального оргазма нанести небольшое количество масла на половые органы (половые губы, влагалище, пенис) партнёров непосредственно перед половым актом или за 3-5минут до него. 3. Для усиления приятных ощущений во время полового акта и продления оргазма у мужчин нанести непосредственно перед половым актом или за 3-5минут до него небольшое количество масла</t>
+          <t xml:space="preserve">.Большой стимулятор простаты Big Boy (7 режимов).  Большой стимулятор простаты Big Boy (7 режимов). Модель: rocksoff-7bgkv. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Элитная продукция &gt; Массажеры простаты. Элитная продукция. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. N (1,5 V) x 1 шт (в комплекте)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4415,21 +4613,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>1,5 мл</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>1,5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -4439,10 +4637,18 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
+      <c r="AD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>3.9</v>
+      </c>
       <c r="AH33" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4455,7 +4661,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор простаты, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4475,28 +4681,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Гель-любрикант DESIRE (нейтральный) 60</t>
+          <t>Массажер простаты со стимуляцией</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-3485-1299</t>
+          <t>id-11892-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4512,17 +4718,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3485/3485_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11892/11892_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/11892/11892_1_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный нейтральный гель придаст Вашим отношениям еще больше романтики и страсти. Прекрасно увлажняет кожу интимных мест, устраняя нежелательное ощущение сухости во время близости. Обеспечивает легкое и нежное скольжение для достижения максимального наслаждения. Гель-любрикант DESIRE (нейтральный) 60 мл.  Гель-любрикант DESIRE (нейтральный) 60 мл. Модель: rosparf-066. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Массажер простаты со стимуляцией промежности CHEEKY-BOY (7 режимов).  Массажер простаты со стимуляцией промежности CHEEKY-BOY (7 режимов). Модель: rocksoff-7cbkv. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: силикон. N (1,5 V) x 1 шт (в комплекте)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4535,21 +4741,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>силикон</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -4559,10 +4765,18 @@
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
+      <c r="AD34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.2</v>
+      </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4575,7 +4789,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4595,28 +4809,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Гель-любрикант DESIRE (ваниль) 60 мл</t>
+          <t>Вибро-мастурбатор открытого типа Hand</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-3482-1299</t>
+          <t>id-19373-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4632,17 +4846,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3482/3482_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3482/3482_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3482/3482_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3482/3482_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19373/19373_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19373/19373_1_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный любрикант (смазка), гель для ласк и поцелуев или гель для петтинга - ванильные поцелуи со вкусом и ароматом ваниль. Разжигает огонь страсти, заводит партнёра и продлевает наслаждение. Флакончик с дозатором, экономно расходуется. Прекрасное увлажняющее средство интимных мест. Обеспечивает комфортное скольжение, препятствуя раздражению. Совместим с различными интимными изделиями из любых материалов. Идеально подходит для оральных форм интимного контакта. Легко удаляется. Без противопоказаний. Гель-любрикант DESIRE (ваниль) 60 мл.  Гель-любрикант DESIRE (ваниль) 60 мл. Модель: rosparf-067. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Вибро-мастурбатор открытого типа Hand Solo (7 режимов).  Вибро-мастурбатор открытого типа Hand Solo (7 режимов). Модель: rocksoff-7hsrdv. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: красный. Материал: силикон, пластик. Батареек нет в комплекте. N (1,5 V) x 1 шт (в комплект не входят)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4655,28 +4869,38 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>силикон, пластик</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X35" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>10</v>
+      </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
@@ -4715,28 +4939,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROCKS-OFF</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Гель-лубрикант DESIRE (шоколад) 60 мл</t>
+          <t>Маленький вибратор-член Little Cocky 7</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-3484-1299</t>
+          <t>id-19283-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4752,17 +4976,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3484/3484_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19283/19283_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19283/19283_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19283/19283_3_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель с ароматом шоколада придаст Вашим отношениям еще больше романтики и страсти. Прекрасно увлажняет кожу интимных мест, устраняя нежелательное ощущение сухости во время близости. Обеспечивает легкое и нежное скольжение для достижения максимального наслаждения. Гель-лубрикант DESIRE (шоколад) 60 мл.  Гель-лубрикант DESIRE (шоколад) 60 мл. Модель: rosparf-068. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Маленький вибратор-член Little Cocky (7 режимов).  Маленький вибратор-член Little Cocky (7 режимов). Модель: rocksoff-ro1013l. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: розовый, золотой. Материал: высококачественный силикон с бархатистой поверхностью, пластик. N (1,5 V) x 1 шт (в комплекте)Бренд: ROCKS-OFF. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4775,34 +4999,44 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>11.4</v>
+      </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
+      <c r="AF36" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>5.9</v>
+      </c>
       <c r="AH36" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4815,7 +5049,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, мешочек, инструкция</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -4835,40 +5069,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Гель-лубрикант DESIRE (цитрус) 60 мл</t>
+          <t>Вакуумный стимулятор клитора Romp Shine</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-3481-1299</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>XXL</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>54-56</t>
-        </is>
-      </c>
+          <t>id-23745-1299</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>99999</v>
@@ -4880,17 +5106,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3481/3481_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3481/3481_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3481/3481_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23745/23745_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23745/23745_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23745/23745_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23745/23745_4_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель с ароматом цитруса придаст Вашим отношениям еще больше романтики и страсти. Прекрасно увлажняет кожу интимных мест, устраняя нежелательное ощущение сухости во время близости. Обеспечивает легкое и нежное скольжение для достижения максимального наслаждения. Гель-лубрикант DESIRE (цитрус) 60 мл.  Гель-лубрикант DESIRE (цитрус) 60 мл. Модель: rosparf-069. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Вакуумный клиторальный стимулятор Romp Shine доставить незабываемое удовольствие, которое завершится ярчайшим оргазмом!В процессе стимуляции клитор легонько всасывается в насадку, чтобы воздействовать на него посредством пульсирующих волн удовольствия, что неизбежно приводит к следующим один за другим оргазмам. Имеется 10 режимов стимуляции, управление которыми осуществляется с помощью удобной кнопки на корпусе. Дополнительного ухода не требуется, достаточно помыть в теплой мыльной воде клиторальную насадку (она съемная) или протереть с помощью специального средства для чистки игрушек. Вакуумный стимулятор клитора Romp Shine (10 режимов).  Вакуумный стимулятор клитора Romp Shine (10 режимов). Модель: romp-09178. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Элитная продукция &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Элитная продукция. Цвет: розовый с белым. Материал: медицинский силикон, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4903,7 +5129,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>медицинский силикон, пластик</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
@@ -4916,11 +5146,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>15</v>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
@@ -4939,7 +5179,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор клитора, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -4959,28 +5199,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Гель-лубрикант DESIRE (клубника)</t>
+          <t>Перезаряжаемое эрекционное вибро-кольцо</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-3483-1299</t>
+          <t>id-23748-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4996,17 +5236,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3483/3483_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23748/23748_9_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Гель-лубрикант DESIRE (клубника).  Гель-лубрикант DESIRE (клубника). Модель: rosparf-070. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Стильный аксессуар ROMP Juke для продления полового акта и усиления эрекции. Приятная вибрация имеет 6 режимов вибрации и 4 интенсивности вибрации, массирует чувствительные зоны и создает глубокие ощущения, позволяя сделать половой акт необычным и более приятным, тем самым даря яркие эмоции обоим партнерам. Виброкольцо:  на 40-60% увеличивает продолжительность полового акта. усиливает эрекцию. повышает чувствительность полового члена. ROMP Juke сделано из качественного гипоаллергенного силикона ярко-синего оттенка.  Подходит под размеры большинства мужчин. 60 мин работы на максимальной скорости! Кстати, вибро-кольцо можно использовать в качестве мини-массажера во время прелюдии. Перезаряжаемое эрекционное вибро-кольцо ROMP Juke (6 режимов, 4 скорости).  Перезаряжаемое эрекционное вибро-кольцо ROMP Juke (6 режимов, 4 скорости). Модель: romp-342019wow. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5019,34 +5259,46 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.06</v>
+      </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
+      <c r="AB38" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.470000000000001</v>
+      </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2.7</v>
+      </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5059,7 +5311,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибро-кольцо, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5079,28 +5331,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Крем интимный для мужчин MAXI-P (30 мл)</t>
+          <t>Изящный вакуумный стимулятор клитора</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-3486-1299</t>
+          <t>id-23747-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5116,17 +5368,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3486/3486_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3486/3486_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3486/3486_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23747/23747_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23747/23747_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23747/23747_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23747/23747_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23747/23747_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23747/23747_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23747/23747_7_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный крем DESIRE Intim MAXI-P для мужчин, желающих увеличить размеры члена, улучшить и обострить сладострастные ощущения. Крем увеличивает член до максимального физиологически возможного размера, улучшает качество эрекции и оргастические ощущения. У крема комфортный разогревающий эффект, так как в него добавлен экстракт корицы цейлонской. Это способствует тому, что за короткий отрезок времени к члену приливает большой поток крови и весь свободный кожный покров, в длину и ширину, наполняется и растягивается, тем самым увеличивая половой орган. При длительном использовании крема и специальной гимнастике с вакуумной помпой, половой орган мужчины может увеличиться на несколько сантиметров. Во время использования крема женщина почувствует, что секс стал более качественным, засчёт более тесного контакта. Максимальное возбуждение, отличная эрекция и яркий оргазм Вам гарантированы! Особое внимание уделить тому, КАК наносить крем! Выдавить крем, размером с горошину, на чистую ладонь, равномерно распределить на ствол пениса не затрагивая головку, так как НЕ РЕКОМЕНДУЕТСЯ наносить крем на слизистую! Дать крему впитаться 5-10 минут. Возможна индивидуальная чувствительность. В качестве предварительного тестирования, рекомендуем нанести крем на паховый или локтевой сгиб и понаблюдать за реакцией кожи. Без труда смывается тёплой водой. Крем интимный для мужчин MAXI-P (30 мл).  Крем интимный для мужчин MAXI-P (30 мл). Модель: rosparf-072. Косметика, препараты. Препараты и возбудители &gt; Усиление эрекции. Смазки, косметика &gt; Увеличение размера члена. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Вакуумный клиторальный стимулятор Romp Free доставить незабываемое удовольствие, которое завершится ярчайшим оргазмом!Во время стимуляции клитор легонько всасывается в насадку, чтобы воздействовать на него посредством пульсирующих волн удовольствия, что неизбежно приводит к следующим один за другим оргазмам. Имеется 10 режимов стимуляции, управление которыми осуществляется с помощью удобной кнопки на корпусе. Дополнительного ухода не требуется, достаточно помыть в теплой мыльной воде клиторальную насадку (она съемная) или протереть с помощью специального средства для чистки игрушек. Romp Free имеет крышку, защищающую клиторальную насадку от пыли и загрязнений, поэтому данный стимулятор отлично подходит для путешествий или для постоянного нахождения даже в небольшой в сумочке своей хозяйки. Изящный вакуумный стимулятор клитора Romp Free с крышкой (10 режимов).  Изящный вакуумный стимулятор клитора Romp Free с крышкой (10 режимов). Модель: romp-86441. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Элитная продукция &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Элитная продукция. Цвет: темно-фиолетовый с белым. Материал: пластик, силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5139,28 +5391,38 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>пластик, силикон</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W39" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>11</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
@@ -5179,7 +5441,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор клитора, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5199,13 +5461,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5215,12 +5477,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Гель сужающий влагалище MINI-V (30 мл)</t>
+          <t>Перезаряжаемый вибратор для двойной</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-3487-1299</t>
+          <t>id-24023-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5236,57 +5498,67 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3487/3487_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3487/3487_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24023/24023_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24023/24023_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24023/24023_3_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный крем DESIRE Intim MINI-V. Создан для женщин, мышцы влагалища которых, недостаточно сокращаются. При ипользовании крема происходит расширение сосудов и усиление кровотока к половым органам (активным компонентом является экстракт коры дуба), в связи с этим, ткани наполняются и стенки влагалища сужаются. А это приводит к очень тесному контакту с партнёром, быстрому и лёгкому достижению наслаждения. . И можно даже попробовать . .снова стать девушкой. .Противопоказаний не имеет. ЭТО ВАЖНО! Промежуток времени позволяет избежать схожего действия крема на мужские половые органы. Если сужающее действие не ярко проявляется, то можно увеличивать дозу крема. Без труда смывается тёплой водой. Рекомендуем использовать с презервативами и интимными аксессуарами из любых материалов, что улучшит и разнообразит качество сексуальных отношений. Объём 30 мл. Особое внимание уделить тому, КАК наносить крем! Выдавить крем размером с горошину на тампон или кончики пальцев, нанести на вход и стенки влагалища, подождать 5-7 минут. Гель сужающий влагалище MINI-V (30 мл).  Гель сужающий влагалище MINI-V (30 мл). Модель: rosparf-073. Косметика, препараты. Смазки, косметика &gt; Сужение влагалища. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Яркий и стильный вибратор-кролик от немецкого бренда Romp порадует всех любителей двойной стимуляции.Плавно изогнутый корпус позволяет эффективно воздействовать на точку G, в то время как гибкий отросток массирует головку клитора. Для дополнительного удовольствия ствол вибратора покрыт рельефными ребрами, стимулирующими стенки влагалища. Девайс также оборудован мощным вибромотором с 6-ю уровнями воздействия и 4-мя оригинальными режимами работы. Экспериментируйте и создавайте новые сочетания с учетом ваших предпочтений! А благодаря водонепроницаемому покрытию из нежного силикона, вы сможете использовать девайс даже под водой. Перезаряжаемый вибратор для двойной стимуляции Romp Jazz (10 режимов).  Перезаряжаемый вибратор для двойной стимуляции Romp Jazz (10 режимов). Модель: romp-RPRBSGX. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: розовый с желтым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="Y40" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>21</v>
+      </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
+      <c r="AF40" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>3.6</v>
+      </c>
       <c r="AH40" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5299,7 +5571,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5319,28 +5591,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Пролонгаторы</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Крем-пролонгатор для мужчин PROLONGATOR</t>
+          <t>Стимулятор клитора Romp Wave 10</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-3488-1299</t>
+          <t>id-23947-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5356,51 +5628,57 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3488/3488_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3488/3488_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23947/23947_7_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный крем DESIRE Intim PROLONGATOR позволяет существенно увеличить длительность акта. Крем воздействует, притупляя чувствительность нервных окончаний на половом органе и семяизвержение задерживается на 5-20 минут. При регулярном использовании нормализуется самостоятельная функция регулирования семяизвержения. ВАЖНО правильно нанести крем: выдавите крем, размером с горошину, на чистую ладонь. Равномерно распределите на ствол пениса по всей длине, за 3-5 минут до начала полового акта. Дозировку увеличивать постепенно, по мере необходимости. Противопоказаний не имеет. Возможна индивидуальная чувствительность. Без труда смывается тёплой водой. Крем-пролонгатор для мужчин PROLONGATOR (30 мл).  Крем-пролонгатор для мужчин PROLONGATOR (30 мл). Модель: rosparf-074. Косметика, препараты. Препараты и возбудители &gt; Пролонгаторы для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Стимулятор Romp Wave наполнит вашу интимную жизнь новыми ощущениями и поможет лучше познать свое тело. Можно без труда достигнуть оргазма при первом же использовании девайса, приятно удивляющего различными программами вибрации, интенсивностью и мягкостью работы. Девайс имеет очень гибкий корпус из платинового силикона, крайне приятный на ощупь. Силикон безопасен для вашего здоровья. 10 режимов вибрации и пульсации дают возможность достичь наилучшей стимуляции и незабываемых ощущений! Вибромассажер имеет гладкую поверхность у основания для стимуляции клитора. Используйте смазку для лучшего скольжения. Стимулятор следует очищать до и после каждого использования. Стимулятор клитора Romp Wave (10 режимов).  Стимулятор клитора Romp Wave (10 режимов). Модель: romp-rplosgm. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: зеленый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="Y41" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>11.6</v>
+      </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
@@ -5419,7 +5697,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5439,13 +5717,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>РОСПАРФЮМ</t>
+          <t>ROSA RUGOSA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5455,12 +5733,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Спрей с феромонами бз запаха UNISEX</t>
+          <t>УФ контейнер для гигиенической</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-3465-1299</t>
+          <t>id-20534-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5476,17 +5754,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3465/3465_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3465/3465_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20534/20534_14_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magic Feromon Unisex обладают эффектом, который можно назвать Элексиром Доверия. Данные феромоны вызывают чувство доверия и симпатии к обладателю такого аромата, поэтому их можно использовать не только в интимной и личной жизни, но и для делового общения. Invisible - не имеет запаха, с повышенным содержанием феромонов, подходит для применения с любыми духами или без духов. Спрей с феромонами бз запаха UNISEX Invisible (20 мл).  Спрей с феромонами бз запаха UNISEX Invisible (20 мл). Модель: rosparf-104. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Представьте, что очистка секс-игрушки теперь занимает всего несколько минут абсолютно без вашего участия.Такое стало возможно благодаря настоящей революции в мире дезинфекции  устройства Security Knight Q3 от Rosa Rugosa.Его работа основывается на воздействии ультрафиолетовых лучей. Высокотехнологичная система подходит для любого типа и материала игрушек, не нанося совершенно никакого вреда в отличие от ручного очищения.Не имеющий аналогов среди других брендов, этот аксессуар  настоящая находка для тех, кто ценит своё здоровье и время. Его премиальный дизайн покорит даже самый взыскательный вкус и станет прекрасным дополнением к любому интерьеру. вид роскошной шкатулки с зеркалом скрывает истинное предназначение девайса и не привлекает к себе внимания. максимально понятное управление не требует вашего присутствия: просто нажмите большую кнопку, а через пять минут устройство само закончит работу и подаст сигнал. идеальная очистка сразу нескольких любимых игрушек без дополнительных действий и манипуляций. замок на автоматической защёлке, работа от сети и небольшой вес аксессуара станут приятным дополнением к его безупречной работе.Выбирайте для себя только лучшее с Rosa Rugosa!.УФ контейнер для гигиенической обработки игрушек Rosa Rugosa Security Knight Q3.  УФ контейнер для гигиенической обработки игрушек Rosa Rugosa Security Knight Q3. Модель: rosar-14655. Секс-игрушки. Дезинфекция &gt; Контейнеры. Цвет: белый, золотой. Матери</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5499,30 +5777,44 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>20 мл</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>20 мл</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>15</v>
+      </c>
+      <c r="X42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.9</v>
+      </c>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
@@ -5539,7 +5831,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>контейнер (работает от сети)</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -5559,7 +5851,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -5570,17 +5862,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант UNEX на водной</t>
+          <t>Концентрат феромонов для женщин DESIRE</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-12565-1299</t>
+          <t>id-3472-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5596,44 +5888,44 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12565/12565_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3472/3472_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3472/3472_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3472/3472_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3472/3472_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3472/3472_4_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Любриканты UNEX на водной основе объёмом 50 мл. Прекрасно увлажняют кожу интимных мест, повышают комфортность интимных отношений, обостряют и увеличивают чувствительность эрогенных зон. Эффективно защищают от потёртостей и раздражения. Наносить на половые органы непосредственно перед половым актом. Прозрачные, не оставляют пятен, обладают приятным еле уловимым ароматом. Безопасны при использовании изделий из резины, латекса и устройств, призванных разнообразить и улучшить сексуальные ощущения. Спешим сообщить, что в рамках протекающего ребрендинга нашей продукции мы выпустили обновлённые любриканты UNEX с возбуждающим эффектом  на водной основе. Новый не только дизайн. Объём тюбика теперь 50 мл вместо 40 мл. Теперь по физическим свойствам он соответствует лучшим европейским аналогам. Ну, а наличие в наших любрикантах специально разработанного сложного комплекса компонентов, обеспечивающих возбуждающий эффект, делает UNEX абсолютно уникальным. Возбуждающий лубрикант UNEX на водной основе (50 мл).  Возбуждающий лубрикант UNEX на водной основе (50 мл). Модель: rosparf-113-1. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Концентрат феромонов DESIRE PHEROMONE создан специально для женщин, ищущих свое счастье и готовых его получить.Один из самых эффективных и дорогих продуктов отечественной косметологии от компании Роспарфюм - это результат многолетних исследований в клинических условиях.Его эффективность  вне сомнений!Его результативность поражает даже скептиков!Его неуловимый аромат оказывает волшебное действие на мужчин!Концентрация феромонов в DESIRE PHEROMONE просто сногсшибательна,  по сравнению с аналогичными средствами  это настоящий концентрат любви и желания.Он работает в течение целого дня!Не вызывает аллергии.Не оставляет следов на коже и одежде.Без запаха.И безукоризненно справляется с поставленной задачей  делает Вас желанной и любимой.Не ждите чудес  подарите себе яркую и насыщенную любвью жизнь с помощью концентрата феромонов DESIRE PHEROMONE для женщин.Он создан только для Вас!Масляная основа. Не используются феромоны животного происхождения! Только синтетические феромоны! Рекомендуется наносить: на запястья, заушную область, локтевые и подколенные сгибы, ложбинку между грудей. Концентрат феромонов для женщин DESIRE (без запаха) 10 мл.  Концентрат феромонов для женщин DESIRE (без запаха) 10 мл. Модель: rosparf-002. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -5695,12 +5987,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Женские духи с феромонами FLIRT</t>
+          <t>Женские духи с феромонами I'M LADY</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-7884-1299</t>
+          <t>id-7883-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5716,12 +6008,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7884/7884_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7883/7883_1_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone FLIRT NEW. Соблазнительный аромат мечтательной, озорной, жизнерадостной женщины, дополняет её кокетливый образ чувственностью и магнетизмом.Тип аромата: floral fruity . цветочно-фруктовыйВерхние ноты: груша, персик, ландыш. Ноты сердца: герань, болгарская роза, фиалка. Базовые ноты: белый мускус, ваниль. Женские духи с феромонами FLIRT.  Женские духи с феромонами FLIRT. Модель: rosparf-114. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone IM LADY NEW. Истинная женственность, изящность и соблазнительность - аромат настоящей Леди. Роскошь цветочных нот и страсть мускуса заставят учащенно биться сердца окружающих.Тип аромата: floral musky . цветочно-мускусныйВерхние ноты: розовый перец, личи, чёрная смородина, персик. Ноты сердца: роза, фиалка, иланг-иланг. Базовые ноты: мускус, ваниль, пачули. Женские духи с феромонами I'M LADY.  Женские духи с феромонами I'M LADY. Модель: rosparf-0116. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5799,7 +6091,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -5810,17 +6102,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Женские духи с феромонами HOT LIPS</t>
+          <t>Феромоны мужские для привлечения женщин</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-7887-1299</t>
+          <t>id-3533-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5836,17 +6128,17 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7887/7887_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3533/3533_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3533/3533_1_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone HOT LIPS NEW. Аромат, рождающий страсть. Глубокий и многогранный, волнующий и томный, как поцелуй горячих, пьянящих губ.Тип аромата: floral orange blossom . цветочно-цитрусовыйВерхние ноты: земляника, грейпфрут, апельсин, мандарин. Ноты сердца: цветки апельсинового дерева, белого персика, пион. Базовые ноты: пачули, ваниль, пралине. Женские духи с феромонами HOT LIPS.  Женские духи с феромонами HOT LIPS. Модель: rosparf-115. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Они не имеют запаха, их можно использовать как с мужским парфюмом, так и без него. Но результат всегда один  безудержное влечение женщин только к Вам!Хотите стать по-настоящему обаятельным?Тогда DESIRE INVISIBLE с феромонами - это 100% инвестиция в улучшение Вашей жизни!Духи на масляной основе. Не используются феромоны животного происхождения! Только синтетические феромоны!.Феромоны мужские для привлечения женщин Invisible (без запаха) 5 мл.  Феромоны мужские для привлечения женщин Invisible (без запаха) 5 мл. Модель: rosparf-020. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5863,17 +6155,17 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -5919,7 +6211,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -5935,12 +6227,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Женские духи с феромонами VAMP (8 мл)</t>
+          <t>Феромоны женские для привлечения мужчин</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-7886-1299</t>
+          <t>id-3532-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5956,17 +6248,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7886/7886_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3532/3532_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3532/3532_1_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone VAMP NEW. Яркий аромат женщины-вамп. Эротичный, влекущий, обволакивающий, пробуждающий сильные эмоции и желание.Тип аромата: floriental . флориенталь (сложный цветочный аромат с восточными нотами)Верхние ноты: бергамот, мандарин, грейпфрут. Ноты сердца: маракуйя, пион, магнолия. Базовые ноты: пралине, ваниль. Женские духи с феромонами VAMP (8 мл).  Женские духи с феромонами VAMP (8 мл). Модель: rosparf-117. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Духи женские ПРЕМИУМ без запаха. Содержание феромонов значительно увеличено в отличии от ранее представленных коллекций. INVISIBLE ─ невидим для окружающих. Однако, эффект не терпит промедления  Вы сразу почувствуете особое внимание к себе и оцените его по достоинству!Уникальны эти духи тем, что феромоны содержащиеся в них, усиливают Вашу привлекательность, поднимают настроение и придают уверенность, а отсутствие парфюмерной композиции позволяет одновременно применять свой парфюм. Но результат всегда один  безудержное влечение мужского пола только к Вам!Духи на масляной основе. Не используются феромоны животного происхождения! Только синтетические феромоны! Рекомендуется наносить: на запястья, заушную область, локтевые и подколенные сгибы, ложбинку между грудей. Феромоны женские для привлечения мужчин Invisible (без запаха) 5 мл.  Феромоны женские для привлечения мужчин Invisible (без запаха) 5 мл. Модель: rosparf-021. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5983,17 +6275,17 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -6039,7 +6331,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -6055,12 +6347,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Женские духи с феромонами SEXY</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-7885-1299</t>
+          <t>id-3575-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6076,17 +6368,17 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7885/7885_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3575/3575_1_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone SEXY NEW. Шикарный эликсир искушения и власти соблазняет и привлекает. Аромат пробуждает чувства и зажигает в сердце огонь любви. В нём хочется заблудиться и раствориться до последней капли. Сплетение нежных и сладковатых аккордов с богатым шлейфом. Для тех, кто хочет быть в центре внимания!Тип аромата: oriental woody . ориентально-древесный (аромат с восточными нотами, сладкий)Верхние ноты: пассифлора, она же страстоцвет (страстный цветок с лат.). Ноты сердца: жасмин, белый цветок таитянской гардении, он же цветок тиаре. Базовые ноты: ваниль, ветивер. Женские духи с феромонами SEXY.  Женские духи с феромонами SEXY. Модель: rosparf-118. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Эти духи настоящее воплощение тайны, магии и загадочности. Хотите создать атмосферу очарования и волшебства? Без опьяняющего парфюма Вам просто не обойтись. Зажгите внутри себя огонёк страсти и желания! Он тонизирует и возбуждает, погружает Вас в атмосферу французской изысканности. Отличается уникальностью и притягательностью представителей противоположного пола.Тип аромата: ориентальныйНачальная нота: бергамот, герань, гиацинт. Нота сердца: мимоза, роза, гвоздика, фиалка, ландыш. Конечная нота: иланг-иланг, кедр, гелиотроп, амбра, дубовый мох.Этот аромат понравится тем, кто предпочитает:  Opium (Yves Saint Laurent). Ароматизирующее масло для женщин DESIRE mini №10 философия аромата Opium (5 мл).  Ароматизирующее масло для женщин DESIRE mini №10 философия аромата Opium (5 мл). Модель: rosparf-043-10. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6103,17 +6395,17 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -6159,7 +6451,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -6170,17 +6462,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Мужские духи с феромонами I'M BOSS</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-7891-1299</t>
+          <t>id-3576-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6196,17 +6488,17 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7891/7891_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3576/3576_1_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone IM BOSS. Роскошный и элегантный аромат, олицетворяющий власть и благосостояние, непревзойдённое лидерство во всём, как в делах, так и в отношениях.Тип аромата: woody citrus aromatic . древесно-цитрусовыйВерхние ноты: лимон, грейпфрут, апельсин. Ноты сердца: роза, свежая мята, мускатный орех. Базовые ноты: кедровое дерево, ветивер. Мужские духи с феромонами I'M BOSS.  Мужские духи с феромонами I'M BOSS. Модель: rosparf-119. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Парфюм нового дня и новой жизни. Вместо серых будней пойдёт череда волшебных праздников полные веселья, радости и чудес. Свежий и нежный аромат. Раскрывается букетом пряных цветов. Приведёт современную жительницу мегаполиса к желанному успеху в любовных связях и деловых контактах.Тип аромата: цветочныйНачальная нота: экзотические плоды личи и нежной фрезии. Нота сердца: магнолия, мандарин, перец. Конечная нота: жасмин, амбра, мускус.Этот аромат понравится тем, кто предпочитает:  Miracle (Lancome). Ароматизирующее масло для женщин DESIRE mini №11 Miracle (5 мл).  Ароматизирующее масло для женщин DESIRE mini №11 Miracle (5 мл). Модель: rosparf-043-11. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6223,17 +6515,17 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -6279,7 +6571,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -6290,17 +6582,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Мужские духи с феромонами COOL</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-7890-1299</t>
+          <t>id-3579-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6316,17 +6608,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7890/7890_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3579/3579_1_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone COOL. Аромат мужественности и уверенности. Аромат деловых мужчин, умеющих самостоятельно принимать решения, в том числе и в выборе партнёрши.Тип аромата: woody marine aromatic . древесно-морскойВерхние ноты: бергамот, лимон, мандарин. Ноты сердца: семена кориандра, морские ноты, цикламен. Базовые ноты: кедровое дерево, пачули, мох, мускус. Мужские духи с феромонами COOL.  Мужские духи с феромонами COOL. Модель: rosparf-120. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Для современной и сексуальной женщины, которая сочетает в себе чувственность и холодную красоту. Эта женщина точно знает, что хочет, и чтобы получить желаемое она не остановится ни перед чем. Страстный и удивительно женственный, словно искрящийся чувственностью парфюм.Тип аромата: цветочно-фруктовыйНачальная нота: груша и чёрная смородина, красный апельсин и мандарин. Нота сердца: гибискус, фрезия, тубероза и цветок имбиря. Конечная нота: бурбонская ваниль, калифорнийский кедр, сандаловое дерево, мускус.Этот аромат понравится тем, кто предпочитает: Deep Red (Hugo Boss). Ароматизирующее масло для женщин DESIRE mini №14 Deep Red (5 мл).  Ароматизирующее масло для женщин DESIRE mini №14 Deep Red (5 мл). Модель: rosparf-043-14. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6343,17 +6635,17 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -6399,7 +6691,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -6410,17 +6702,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Мужские духи с феромонами CHEEKY (8 мл)</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-7889-1299</t>
+          <t>id-3580-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6436,17 +6728,17 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7889/7889_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3580/3580_1_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone CHEEKY. Дерзкий, сексуальный аромат для настоящего щёголя. Он в центре внимания и неустанно завоёвывает комплименты и томные взгляды.Тип аромата: aromatic fougere . фужерныйВерхние ноты: кедровые листья, кардамон, розовый перец. Ноты сердца: лаванда, герань, тархун. Базовые ноты: индонезийский пачули, кедровое дерево, мох. Мужские духи с феромонами CHEEKY (8 мл).  Мужские духи с феромонами CHEEKY (8 мл). Модель: rosparf-121. Косметика, препараты. Насадки и кольца. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Бодрящий и тонизирующий аромат, близок к аромату унисекс. Аромат для молодежи, для тех, кто оригинален и не следует общепринятым правилам, а действует согласно собственным желаниям. Свежий, дерзкий и искрящийся аромат.Тип аромата: ориентальный.восточныйНачальная нота: гардения, бергамот и лимон. Нота сердца: белый перец, роза и пралине. Конечная нота: сандаловое дерево и белый мускус.  Этот аромат понравится тем, кто предпочитает:  Oblique Play (Givenchy).Ароматизирующее масло для женщин DESIRE mini №15 Oblique (5 мл).  Ароматизирующее масло для женщин DESIRE mini №15 Oblique (5 мл). Модель: rosparf-043-15. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6463,17 +6755,17 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -6519,7 +6811,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -6530,17 +6822,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Мужские духи с феромонами SPORT</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-7892-1299</t>
+          <t>id-3581-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6556,17 +6848,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7892/7892_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3581/3581_1_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone SPORT. Аромат активного, динамичного и спортивного мужчины. Пикантный и приятный аромат древесины покоряет своей силой, задаёт заряд энергии и бодрости для новых побед.Тип аромата: woody aromatic . древесныйВерхние ноты: полынь, кардамон, цедра лимона. Ноты сердца: розмарин, кедровые листья, фиалка. Базовые ноты: пачули, кедровое дерево. Мужские духи с феромонами SPORT.  Мужские духи с феромонами SPORT. Модель: rosparf-122. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Она ценит каждое мгновение жизни, она умна и непосредственна. Интригующий парфюм с молодым и современным характером. Раскрывается очень легко и романтично, соблазняя и очаровывая всех окружающих.Тип аромата: цветочныйНачальная нота: цветки апельсинового дерева, листья кориандра, кардамон. Нота сердца: жасмин, листья фиалки. Конечная нота: сандал, мускус, ваниль.Этот аромат понравится тем, кто предпочитает:  Touch of Pink (Lacoste). Ароматизирующее масло для женщин DESIRE mini №16 Lacoste Pink (5 мл).  Ароматизирующее масло для женщин DESIRE mini №16 Lacoste Pink (5 мл). Модель: rosparf-043-16. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6583,17 +6875,17 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -6639,7 +6931,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -6650,17 +6942,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Мужские духи с феромонами MASTER</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-7888-1299</t>
+          <t>id-3583-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6676,17 +6968,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7888/7888_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3583/3583_1_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone MASTER. Аромат сильного и мудрого мужчины. Его основательность и надёжность беспрестанно приковывает взгляды прекрасной половины. Уверенность и сексуальность верные спутники всех достижений.Тип аромата: woody aromatic . древесныйВерхние ноты: лимон, зелёная листва, грейпфрут, апельсин. Ноты сердца: фиалка, свежая мята, морские ноты. Базовые ноты: индонезийский пачули, кедровое дерево, мох. Мужские духи с феромонами MASTER.  Мужские духи с феромонами MASTER. Модель: rosparf-123. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Этот аромат понравится тем, кто предпочитает:  Love in Paris от Nina Ricci. Букет этих духов великолепен и сам по себе, но феромоны делают его понастоящему соблазнительным! DESIRE PHEROMONE №18 с феромонами для женщин созданы для тех, кто ценит каждую секунду своей жизни и превращает их в нескончаемое наслаждение. Ароматизирующее масло для женщин DESIRE mini №18 N.Ricci Love in Paris (5 мл).  Ароматизирующее масло для женщин DESIRE mini №18 N.Ricci Love in Paris (5 мл). Модель: rosparf-043-18. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -6703,17 +6995,17 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -6759,7 +7051,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -6770,17 +7062,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Духи Unisex с феромонами INDIGO</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-7897-1299</t>
+          <t>id-3584-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6796,17 +7088,17 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7897/7897_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3584/3584_1_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone INDIGO. Обладатель этого аромата любит жизнь во всех ее проявлениях, являясь яркой натурой, привлекает всеобщее внимание и восхищение.Тип аромата: floral orange blossom . цветочно-древесно-цитрусовыйВерхние ноты: бергамот, лимон, мандарин, ноты зелени. Ноты сердца: жасмин, лилия, роза. Базовые ноты: кедровое дерево, сандаловое дерево, амбра, мускус, мох. Духи Unisex с феромонами INDIGO.  Духи Unisex с феромонами INDIGO. Модель: rosparf-124. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Для темпераментных, эмоциональных и смелых женщин, стремящихся к свободе и раскрепощённости. Яркий, зажигательный аромат вобрал в себя впечатления весёлых вечеринок в Рио-де-Жанейро. Искрящийся, сексуальный аромат для яркой и экспрессивной женщины.Тип аромата: цитрусовыйНачальная нота: мандарин, ананас, папайя. Нота сердца: персик, кокосовое молоко. Конечная нота: сандаловое дерево.Этот аромат понравится тем, кто предпочитает:  Rockin Rio (Escada). Ароматизирующее масло для женщин DESIRE mini женские №19 Escada Rockin' Rio (5 мл).  Ароматизирующее масло для женщин DESIRE mini женские №19 Escada Rockin' Rio (5 мл). Модель: rosparf-043-19. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6823,17 +7115,17 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -6879,7 +7171,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -6890,17 +7182,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Духи Unisex с феромонами RAINBOW</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-7896-1299</t>
+          <t>id-3566-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -6916,17 +7208,17 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7896/7896_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3566/3566_1_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone RAINBOW. Универсальный, так называемый, парный аромат для юношей и девушек. Безупречный аромат для энергичных, позитивных, радужных людей!Тип аромата: floral woody citrus . цветочно-древесно-фруктовыйВерхние ноты: яблоко, груша, чёрная смородина, дыня, кардамон. Ноты сердца: роза, магнолия, экзотические фрукты. Базовые ноты: ветивер, мох, кедр. Духи Unisex с феромонами RAINBOW.  Духи Unisex с феромонами RAINBOW. Модель: rosparf-125. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">.Ароматизирующее масло для женщин DESIRE mini №1 J'adore (5 мл).  Ароматизирующее масло для женщин DESIRE mini №1 J'adore (5 мл). Модель: rosparf-043-1. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -6943,17 +7235,17 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -6999,7 +7291,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -7010,17 +7302,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Духи Unisex с феромонами PARTNER</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-7895-1299</t>
+          <t>id-3585-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -7036,17 +7328,17 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7895/7895_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3585/3585_1_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone PARTNER NEW. Эта модная парфюмерная композиция вызовет лишь положительные эмоции у вашего визави, будь то деловое общение или личное. С этим ароматом вы надёжный и приятный партнёр во всех смыслах и отношениях!Тип аромата: oriental woody . восточно-древесныйВерхние ноты: апельсин, мандарин. Ноты сердца: кедровое дерево, гелиотроп. Базовые ноты: бобы тонка, ваниль, мускус, сандаловое дерево. Духи Unisex с феромонами PARTNER.  Духи Unisex с феромонами PARTNER. Модель: rosparf-126. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Ощущение молодости, гармонии и женственности заставляет влюбиться в аромат и наслаждаться им долгие годы. Даёт заряд живительной энергии и искрящуюся звучанием свежесть. Наполняет жизнь праздником, меняет настроение, даёт почувствовать себя настоящей женщиной.Тип аромата: цветочно-фруктовыйНачальная нота: мята, зеленая сирень, мандарин. Нота сердца: водяная лилия, амарилис, белый персик. Конечная нота: ваниль, голубой кедр.Этот аромат понравится тем, кто предпочитает:  L'eau par Kenzo (Kenzo). Ароматизирующее масло для женщин DESIRE mini №20 Kenzo L'eau par (5 мл).  Ароматизирующее масло для женщин DESIRE mini №20 Kenzo L'eau par (5 мл). Модель: rosparf-043-20. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -7063,17 +7355,17 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -7119,7 +7411,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -7130,17 +7422,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Духи Unisex с феромонами BUSINESS</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-7893-1299</t>
+          <t>id-3567-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -7156,17 +7448,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7893/7893_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3567/3567_1_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone BUSINESS. Деловой парфюм и этим всё сказано. Феромоны унисекс и великолепная парфюмерная композиция помогут вам открыть любые двери и заключить самые выгодные контракты, в том числе и брачные.Тип аромата: floral woody citrus . цветочно-древесно-цитрусовыйВерхние ноты: манго, грейпфрут, бергамот. Ноты сердца: лотос, кардамон. Базовые ноты: кедровое дерево, мускус, фиалковый корень. Духи Unisex с феромонами BUSINESS.  Духи Unisex с феромонами BUSINESS. Модель: rosparf-127. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Аромат, которым женщина может пользоваться где захочет и когда захочет: днём и вечером, в городе и за городом, на деловой встрече и романтическом свидании, на работе и на отдыхе. Современный и универсальный стиль.Тип аромата: цветочно-фруктовыйНачальная нота: цветы камелии, цветущая яблоня, чёрная смородина. Нота сердца: мандарин, зелёная листва, мята. Конечная нота: жимолость, фиалка, жасмин, дакотская лилия, роза, лепестки магнолии.Этот аромат понравится тем, кто предпочитает:  Tommy Girl (это первые женские духи американского дизайнера Tommy Hilfiger).Ароматизирующее масло для женщин DESIRE mini №2 Tommy Girl (5 мл).  Ароматизирующее масло для женщин DESIRE mini №2 Tommy Girl (5 мл). Модель: rosparf-043-2. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -7183,17 +7475,17 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -7239,7 +7531,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -7250,17 +7542,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Духи Unisex с феромонами AMIGO</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-7894-1299</t>
+          <t>id-3568-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7276,17 +7568,17 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7894/7894_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3568/3568_1_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone AMIGO NEW. Аромат энергии и жизнерадостности, со свежими изящными нотами. Универсальный и стремительный, лёгкий и манящий.Тип аромата: woody fruity . древесно-фруктовыйВерхние ноты: бергамот, корица, яблоко, ананас. Ноты сердца: лепестки жасмина, нероли. Базовые ноты: ветивер, ваниль, белый мускус. Духи Unisex с феромонами AMIGO.  Духи Unisex с феромонами AMIGO. Модель: rosparf-128. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Интимный и роскошный аромат, он понравится уверенным в себе обольстительницам, чья грация и изящность с лёгкостью покоряют мужские сердца. Подчеркните своё истинное я.Тип аромата: цветочныйНачальная нота: жасмин, бергамот. Нота сердца: гардения, ландыш, лилия. Конечная нота: сатиновое и сандаловое дерево.Этот аромат понравится тем, кто предпочитает: 212 SEXY (С.Herrera). Ароматизирующее масло для женщин DESIRE mini №3 C.Herrera 212 (5 мл).  Ароматизирующее масло для женщин DESIRE mini №3 C.Herrera 212 (5 мл). Модель: rosparf-043-3. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7303,17 +7595,17 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>8 мл</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -7359,7 +7651,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -7375,12 +7667,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Духи для женщин знака ВОДОЛЕЙ</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-11247-1299</t>
+          <t>id-3571-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7396,12 +7688,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11247/11247_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3571/3571_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3571/3571_2_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские с повышенным содержанием феромонов для привлечения мужчин ЗОДИАК ВОДОЛЕЙ. Аромат создаёт вокруг Вас атмосферу притяжения. Гипнотизирует, искушает и провоцирует, пробуждает чувства и околдовывает.Тип аромата: цветочныйНачальная нота: цветки апельсинового дерева, листья кориандра, кардамон. Нота сердца: жасмин, листья фиалки. Конечная нота: сандал, мускус, ваниль. Аналог: Touch of Pink (Lacoste). Духи для женщин знака ВОДОЛЕЙ.  Духи для женщин знака ВОДОЛЕЙ. Модель: rosparf-134. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">В этом прозрачном аромате свежести все ноты настолько гармонично переплетаются, что создаётся иллюзия погружения в прохладную воду, ароматизированную листочками зелёного чая. Прохлада, чистота и энергия ? вот 3 составляющих этого парфюма.Тип аромата: цитрусовыйНачальная нота: лимон, апельсин, бергамот, перечная мята, несущая мощный заряд энергии. Нота сердца: зелёный чай, жасмин, семена сельдерея и цветки гвоздики. Конечная нота: дубовый мох, мускус, белая амбра, тмин и фенхель.Этот аромат понравится тем, кто предпочитает:  Green Tea (Elizabeth Arden). Ароматизирующее масло для женщин DESIRE mini №6 Green Tea (5 мл).  Ароматизирующее масло для женщин DESIRE mini №6 Green Tea (5 мл). Модель: rosparf-043-6. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7411,12 +7703,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
@@ -7479,7 +7771,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -7495,12 +7787,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Духи для женщин знака ДЕВА</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-11250-1299</t>
+          <t>id-3572-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -7516,12 +7808,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11250/11250_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3572/3572_1_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские ЗОДИАК ДЕВА с повышенным содержанием феромонов для привлечения мужчин. Аромат искушения звучит, как признание в любви, дарит радость и счастье.Тип аромата: восточно-фруктовыйНачальная нота: розовый грейпфрут, сладкий мандарин, чёрная смородина. Нота сердца: цветки жасмина, лилии, ландыша и абрикосового дерева. Конечная нота: белый мускус, кедр, сандал, бобы тонка, ваниль и серая амбра.Этот аромат понравится тем, кто предпочитает:  Amor Amor (Cacharel). Духи для женщин знака ДЕВА.  Духи для женщин знака ДЕВА. Модель: rosparf-135. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Духи женские с феромонами. Неожиданный союз природы и города, которого так не хватало современным горожанкам, вечно спешащим по своим неотложным делам. Энергичный, поэтичный, оптимистичный и смелый аромат парфюма не должен остаться без внимания. Необыкновенно яркий и дразнящий аромат.Тип аромата: цветочныйНачальная нота: пармская фиалка, дикий боярышник, чёрная смородина, болгарская роза. Нота сердца: жасмин, бурбонская ваниль, белый мускус, опопонакс. Конечная нота: тёплый светлый шлейф гедиона и циклозаль придаёт композиции чувственность и неординарность.Этот аромат понравится тем, кто предпочитает:  Kenzo Flower (Kenzo). Ароматизирующее масло для женщин DESIRE mini №7 Kenzo Flower (5 мл).  Ароматизирующее масло для женщин DESIRE mini №7 Kenzo Flower (5 мл). Модель: rosparf-043-7. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7599,7 +7891,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -7615,12 +7907,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Духи для женщин знака КОЗЕРОГ</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-11252-1299</t>
+          <t>id-3573-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -7636,12 +7928,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11252/11252_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3573/3573_1_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские ЗОДИАК КОЗЕРОГ с повышенным содержанием феромонов для привлечения мужчин. Аромат, который воплощает свободный дух. Девиз аромата ? шарм, искренность, спонтанность.Тип аромата: цветочно-древесныйНачальная нота: ямайский перец, красная фрезия, зелёное яблоко. Нота сердца: цветок белого гелиотропа, иранскийи жасмин, болгарская роза, амбра. Конечная нота: гималайский кедр, ладан, сандаловое дерево Майсур.Этот аромат понравится тем, кто предпочитает: Lacoste pour femme (Lacoste). Духи для женщин знака КОЗЕРОГ.  Духи для женщин знака КОЗЕРОГ. Модель: rosparf-136. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Неожиданный союз природы и города, которого так не хватало современным горожанкам, вечно спешащим по своим неотложным делам. Энергичный, поэтичный, оптимистичный и смелый аромат парфюма не должен остаться без внимания. Необыкновенно яркий и дразнящий аромат.Тип аромата: альдегидные, цветочные.Начальная нота: лимон, нероли, альдегидные аккорды, бергамот, иланг-иланг.Нота сердца: роза, корень ириса, ирис, ландыш, жасмин.Конечная нота: сандал, амбра, мускус, пачули, ваниль, ветивер, дубовый мох.Этот аромат понравится тем, кто предпочитает: Chanel No.5 (Chanel).Ароматизирующее масло для женщин DESIRE mini №8 Chanel №5 (5 мл).  Ароматизирующее масло для женщин DESIRE mini №8 Chanel №5 (5 мл). Модель: rosparf-043-8. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7719,7 +8011,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -7735,12 +8027,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Духи для женщин знака ЛЕВ (5 мл)</t>
+          <t>Ароматизирующее масло для женщин DESIRE</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-11241-1299</t>
+          <t>id-3574-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -7756,12 +8048,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11241/11241_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3574/3574_1_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские ЗОДИАК ЛЕВ с повышенным содержанием феромонов для привлечения мужчин. Аромат для женщин устанавливающих свои правила: самостоятельных, немного дерзких, импульсивных и сексуальных. Испытайте удовольствие от аромата, покорите мужские сердца!Тип аромата: восточныйНачальная нота: фрезия, апельсиновый цвет, базилик. Нота сердца: чёрная смородина, жасмин, ирис, цветок миндаля, ваниль. Конечная нота: амбра, мускус и сандаловое дерево.Этот аромат понравится тем, кто предпочитает:  Boss Intense (Hugo Boss). Духи для женщин знака ЛЕВ (5 мл).  Духи для женщин знака ЛЕВ (5 мл). Модель: rosparf-137. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Духи из коллекции Редкая парфюмерия и винтаж (данный аромат в оригинале не выпускается больше производителями). Ничто не может подчеркнуть индивидуальный образ женщины лучше, чем уникальный аромат старинных духов  и сегодня подобная роскошь доступна, без преувеличения, любой представительнице прекрасного пола. Аромат манящий, загадочный, терпкий. Карамельная сладость необыкновенно очаровывает. Аромат замечательно подойдёт для романтического ужина с продолжением.Тип аромата: ориентально-цветочныйНачальная нота: жасмин, роза. Нота сердца: кардамон, шалфей, белый мускус. Конечная нота: сандаловое дерево и ветивер.Этот аромат понравится тем, кто предпочитает:  Wild Musk (Coty). Ароматизирующее масло для женщин DESIRE mini №9 Wild Musk (5 мл).  Ароматизирующее масло для женщин DESIRE mini №9 Wild Musk (5 мл). Модель: rosparf-043-9. Косметика, препараты. Насадки и кольца. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7839,7 +8131,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -7850,17 +8142,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Духи для женщин знака РАК</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-11244-1299</t>
+          <t>id-3596-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -7876,17 +8168,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11244/11244_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3596/3596_1_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские ЗОДИАК РЫБЫ с повышенным содержанием феромонов для привлечения мужчин. Аромат раскованной сексапильной женщины с независимым характером. Вы заиграете, как бриллиантовый камушек.Тип аромата: восточно-пряныйНачальная нота: цветки апельсинового и грейпфрутового дерева, бергамот, флердоранж. Нота сердца: мимоза, жасмин, роза, иланг-иланг. Конечная нота: пачули, ветивер, ваниль, белый мускус, бобы тонка, мирра.Этот аромат понравится тем, кто предпочитает: Coco Mademoiselle (Chanel). Духи для женщин знака РАК.  Духи для женщин знака РАК. Модель: rosparf-139. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Чувственный и смелый аромат, подобный изменчивому океану, является отражением Вашей индивидуальности. Пряный кориандр и зелёные травяные аккорды придают парфюму особую свежесть и нежность. Однако в композиции присутствуют и динамические оттенки, которые подчёркиваются начальными нотами розмарина, лаванды, кориандра, мяты и флердоранжа. Сердечные ноты сандалового дерева, жасмина, герани и мха, заставляют надолго запомнить неповторимый аромат, достаточно лишь сделать один вдох. . Завершают коктейль ноты мускуса и серой амбры.Этот аромат понравится тем, кто предпочитает:  Cool Water (Davidoff), подчёркивает имидж делового человека. Аромат на каждый день. Ароматизирующее масло для мужчин DESIRE mini №11 Cool Water (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №11 Cool Water (5 мл). Модель: rosparf-044-11. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -7959,7 +8251,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -7970,17 +8262,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Духи для женщин знака РЫБЫ</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-11245-1299</t>
+          <t>id-3597-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -7996,12 +8288,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11245/11245_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3597/3597_1_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские ЗОДИАК РЫБЫ с повышенным содержанием феромонов для привлечения мужчин. Аромат раскованной сексапильной женщины с независимым характером. Вы заиграете, как бриллиантовый камушек.Тип аромата: восточно-пряныйНачальная нота: цветки апельсинового и грейпфрутового дерева, бергамот, флердоранж. Нота сердца: мимоза, жасмин, роза, иланг-иланг. Конечная нота: пачули, ветивер, ваниль, белый мускус, бобы тонка, мирра.Этот аромат понравится тем, кто предпочитает: Coco Mademoiselle (Chanel). Духи для женщин знака РЫБЫ.  Духи для женщин знака РЫБЫ. Модель: rosparf-140. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Легки как воздух, они возвышают и окрыляют, заставляют всё внутри сжиматься и трепетать. Обладатель духов независим, его слово много значит и не может быть оспорено, он лидер, и остаётся таковым даже в отношениях с противоположным полом. Это новый взгляд на жизнь. Аромат, который освобождает Вас от оков условности и расширяет Ваши возможности. Верхняя нота: амбра, артемизия, ель, кориандр. Нота сердца: мирта, можжевельник. Завершает композицию: белый мускус, кедр.Этот аромат понравится тем, кто предпочитает:  Lanvin Oxygene (Lanvin), гремучая смесь, покоряющая женский разум и разжигающая огонь страсти. Ароматизирующее масло для мужчин DESIRE mini №12 Lavin Oxygene (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №12 Lavin Oxygene (5 мл). Модель: rosparf-044-12. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8079,7 +8371,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8090,17 +8382,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Духи для женщин знака СКОРПИОН</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-11246-1299</t>
+          <t>id-3586-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8116,12 +8408,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11246/11246_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3586/3586_1_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Духи для женщин знака СКОРПИОН.  Духи для женщин знака СКОРПИОН. Модель: rosparf-142. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Обладатель этого аромата - мужчина, покоритель каменных джунглей большого города, который любой ценой жаждет добиться совершенства, достичь вершины успеха во всём: спорте, карьере и любви. Основа композиции - цитрусовые нотки: грейпфрут и можжевельник. В ноте сердца древесный мох сандалового дерева и свежая зелень. В конечной ноте - смесь пряностей, добавляющих композиции восточную таинственность: мускатный орех, перец оттенки ладана и белого мускуса. Этот аромат понравится тем, кто предпочитает:  Higher (Christian Dior) - жгучий мужской аромат унесёт Вас на вершину славы. Ароматизирующее масло для мужчин DESIRE mini №1 Higher Dior (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №1 Higher Dior (5 мл). Модель: rosparf-044-1. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8199,7 +8491,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8210,17 +8502,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Духи для женщин знака СТРЕЛЕЦ</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-11243-1299</t>
+          <t>id-3587-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8236,12 +8528,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11243/11243_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3587/3587_1_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские ЗОДИАК СТРЕЛЕЦ с повышенным содержанием феромонов для привлечения мужчин. Аромату присуще гармоничное сочетание цветов и фруктовых плодов с мускусной примесью. Вы легко создадите себе игривое настроение до лёгкого головокружения.Тип аромата: плодово-цветочныйНачальная нота: имбирь, мандарин, бергамот, кардамон. Нота сердца: роза, жасмин, листья фиалки. Конечная нота: белый мускус.Этот аромат понравится тем, кто предпочитает:  Armand Basi In red (Armand Basi). Духи для женщин знака СТРЕЛЕЦ.  Духи для женщин знака СТРЕЛЕЦ. Модель: rosparf-143. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Активный образ жизни, увлечение спортом и стремление всегда быть в форме - таков облик аромата с истинно мужским характером, построенный на сочетании древесных и кожаных оттенков, рисует образ деловых и предприимчивых людей, которые остаются чувствительными к красоте. Верхние ноты: бергамот, лимон, мята, полынь, мандарин, нероли. Ноты сердца: цикламен, имбирь, морские водоросли, роза, герань, палисандр. Конечная нота: сандал, амбра, кедр, мускус.Этот аромат понравится тем, кто предпочитает:  Polo Sport (Ralph Lauren). Ароматизирующее масло для мужчин DESIRE mini №2 Polo Sport (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №2 Polo Sport (5 мл). Модель: rosparf-044-2. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8319,7 +8611,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -8330,17 +8622,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Духи для женщин знака ТЕЛЕЦ</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-11251-1299</t>
+          <t>id-3588-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8356,12 +8648,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11251/11251_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3588/3588_1_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи женские ЗОДИАК ТЕЛЕЦ с повышенным содержанием феромонов для привлечения мужчин. Аромат экзотических цветов и тропических фруктов. Он перенесёт Вас на планету праздника и веселья, где Вы станете центром внимания!Тип аромата: цитрусовыйНачальная нота: мандарин, ананас, папайя. Нота сердца: персик, кокосовое молоко. Конечная нота: сандаловое дерево.Этот аромат понравится тем, кто предпочитает:  Rockin Rio (Escada). Духи для женщин знака ТЕЛЕЦ.  Духи для женщин знака ТЕЛЕЦ. Модель: rosparf-144. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Элегантный и современный аромат, объединяющий ноты свежести с древесными и пряными аккордами. Он привлекает силой и чистотой своего аромата, заряжает энергией и не перестает радовать своей оригинальностью. Свежие искрящиеся верхние ноты бергамота, лимона и эстрагона сменяются цветочным сердцем, во главе которого водяная лилия. Древесный шлейф кедра, масла ветивера и сандала с лёгким оттенком мускуса плавно завершает аромат.Этот аромат понравится тем, кто предпочитает:  L'Eau D'Issey (Issey Miyake). Ароматизирующее масло для мужчин DESIRE mini №3 L'eau D'issey (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №3 L'eau D'issey (5 мл). Модель: rosparf-044-3. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8439,7 +8731,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -8455,12 +8747,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака БЛИЗНЕЦЫ</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-11253-1299</t>
+          <t>id-3590-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8476,12 +8768,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11253/11253_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3590/3590_1_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК БЛИЗНЕЦЫ с повышенным содержанием феромонов для привлечения женщин. Аромат, который освобождает Вас от оков условности. Это ? гремучая смесь, покоряющая женский разум и разжигающая огонь страсти.Тип аромата: древесно-мускусныйНачальная нота: амбра, артемизия, ель, кориандр. Нота сердца: мирта, можжевельник. Конечная нота: белый мускус, кедр.Этот аромат понравится тем, кто предпочитает:  Lanvin Oxygene (Lanvin). Духи для мужчин знака БЛИЗНЕЦЫ.  Духи для мужчин знака БЛИЗНЕЦЫ. Модель: rosparf-145. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Предназначен для молодого, современного, энергичного и уверенного в себе мужчины, который живёт в мире предельных скоростей и острых ощущений. Взрывная энергия зелёной свежести, дарит ощущение бодрости, пробуждает чувства в сочетании с коньячным аккордом, который придаёт парфюму уникальное ощущение бодрости. Усиливают эту ноту свежие ароматы мандарина и шалфея. Композиция набирает силу в динамичном пряном сердце: кардамон, мускатный орех, красный перец, которое плавно переходит в мужественную базу из аккордов кедра, пачули, сандала. Свежий, древесно-пряный тип аромата.Этот аромат понравится тем, кто предпочитает:  Boss in Motion Green (Hugo Boss) - аромат вечного стремления к совершеству, яркий, сияющий и неукротимый. Ароматизирующее масло для мужчин DESIRE mini №5 Boss Green (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №5 Boss Green (5 мл). Модель: rosparf-044-5. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8559,7 +8851,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8575,12 +8867,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака ВЕСЫ</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-11255-1299</t>
+          <t>id-3591-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8596,12 +8888,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11255/11255_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3591/3591_1_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК ВЕСЫ с повышенным содержанием феромонов для привлечения женщин. Аромат создан для современного мужчины ? целеустремлённого, оптимистичного, но в то же время чувственного, готового к любви.Тип аромата: шипровыйНачальная нота: грейпфрут, можжевельник. Нота сердца: зелёное яблоко, кофе. Конечная нота: жасмин, пачули.Этот аромат понравится тем, кто предпочитает:  DKNY Be Delicious (Donna Karan). Духи для мужчин знака ВЕСЫ.  Духи для мужчин знака ВЕСЫ. Модель: rosparf-146. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Противоречивый аромат со множеством граней. Он одновременно мощный и нежный, свежий и тёплый. Дорогой, шикарный, соблазняющий, тревожный, волнующий, аромат страсти и вожделения, глубокий, горячий, головокружительный, яркий, оригинальный. .Многие мужчины от него просто без ума! Но этот аромат индивидуален, он по-разному раскрывается на каждом его обладателе. В начальных нотах композиции звучат ароматы чёрной смородины, аниса, мандарина, лаванды и бадьяна, постепенно сменяясь более глубокими нотами сердца ─ галангой, геранью, имбирём и сычуанским перцем. Завершает аромат сочетание благородного атласского кедра, бурбонской ванили и пачули.Этот аромат понравится тем, кто предпочитает Opium (Yves Saint Laurent) ─ является самым верным средством обольщения. Ароматизирующее масло для мужчин DESIRE mini №6 Opium (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №6 Opium (5 мл). Модель: rosparf-044-6. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8679,7 +8971,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8695,12 +8987,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака ВОДОЛЕЙ</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-11254-1299</t>
+          <t>id-3592-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -8716,12 +9008,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11254/11254_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3592/3592_1_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК ВОДОЛЕЙ с повышенным содержанием феромонов для привлечения женщин. Аромат воздействующий на чувства подчеркнёт Вашу незаурядную индивидуальность.Тип аромата: фужерныйНачальная нота: лимонник, мандарин. Нота сердца: фрезия, ландыш, роза, жасмин. Конечная нота: кипарис, мускус, кедровое дерево, гуаяковое (гваяковое) дерево.Этот аромат понравится тем, кто предпочитает:  Clinique Happy for Men (Clinique). Духи для мужчин знака ВОДОЛЕЙ.  Духи для мужчин знака ВОДОЛЕЙ. Модель: rosparf-147. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Восхитительный и удивительно естественный аромат для настоящего мужчины. Духи раскрываются свежими и еле уловимыми нотками. Но, потом аромат становится намного интенсивнее, показывая и характеризуя своим благоуханием настоящую мужскую сущность. Начальная нота: экстракт листьев смоковницы, базилика, сицилийского мандарина. Нота сердца: жасмин, шалфей, мох. Заключительная нота: кора сандалового дерева, пустынного атласского кедра, бобы тонка.Этот аромат понравится тем, кто предпочитает:  Dune (Christian Dior)  покоряет своей прохладой, свежестью и гармоничностью. Ароматизирующее масло для мужчин DESIRE mini №7 Dune (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №7 Dune (5 мл). Модель: rosparf-044-7. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8799,7 +9091,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -8815,12 +9107,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака ДЕВА</t>
+          <t>Ароматизирующее масло для мужчин DESIRE</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-11263-1299</t>
+          <t>id-3594-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -8836,12 +9128,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11263/11263_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3594/3594_1_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК ДЕВА с повышенным содержанием феромонов для привлечения женщин. Аромат дорогой, шикарный, соблазняющий ? со множеством граней, он по-разному раскрывается на каждом его обладателе. Одновременно мощный и нежный, свежий и тёплый, волнующий, аромат страсти и вожделения.Тип аромата: ориентально-древесныйНачальная нота: чёрная смородина, анис, мандарин, лаванда, бадьян. Нота сердца: галанга, герань, имбирь, сычуанский перец. Конечная нота: атласский кедр, бурбонская ваниль, пачули.Этот аромат понравится тем, кто предпочитает:  Opium (Yves Saint Laurent). Духи для мужчин знака ДЕВА.  Духи для мужчин знака ДЕВА. Модель: rosparf-148. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Запоминающийся и провокационный парфюм. Настоящий гимн мужской самостоятельности и духу исследователя и первооткрывателя. В основе композиции загадочная серая амбра, мягко и смело сплетающаяся с нотами ветивера, голубой мяты и зелёного дубового мха. Чувственность и откровенность аромата тонко завуалирована благодаря освежающей прохладе мятного экстракта. Трепетную мягкость и нежность, спокойствие и уверенность придаёт согревающий сердце ветивер. Мшисто-древесный шлейф создаёт ощущение лёгкости и свободы.Этот аромат понравится тем, кто предпочитает:  Ultraviolet Man (Paco Rabanne), окутает атмосферой мужественности и шарма, обратит внимание на себя всех окружающих. Ароматизирующее масло для мужчин DESIRE mini №9 Ultraviolet (5 мл).  Ароматизирующее масло для мужчин DESIRE mini №9 Ultraviolet (5 мл). Модель: rosparf-044-9. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8919,7 +9211,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Ароматизаторы эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -8935,12 +9227,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака ЛЕВ</t>
+          <t>Автомобильный ароматизатор с феромонами</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-11258-1299</t>
+          <t>id-13436-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -8956,12 +9248,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11258/11258_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13436/13436_1_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК ЛЕВ с повышенным содержанием феромонов для привлечения женщин. Аромат успеха и элегантности. Вы  настоящий джентльмен, уверенный в себе и этим привлекаете внимание противоположного пола.Тип аромата: древесно-цветочныйНачальная нота: лаванда, розмарин, нероли. Нота сердца: герань, мускатный орех, шалфей, гальбанум. Конечная нота: ветивер, бергамот, древесный мох, сандал, кедровое дерево.Этот аромат понравится тем, кто предпочитает:  Egoist Platinum (Chanel). Духи для мужчин знака ЛЕВ.  Духи для мужчин знака ЛЕВ. Модель: rosparf-150. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Дезодорант воздуха Desire Pheromone  с феромонами мужской для автомобиля и помещений, аромат ЦИТРУСЦИТРУС - букет из сочных фруктов: апельсинов, мандаринов и лайма, создаст прохладу и поднимет настроение Вам и окружающим в кабинете, салоне автомобиля или комнате. Максимальный эффект достигается в малопроветриваемом помещении и в сочетании с духами и косметикой Desire Pheromone. И только Вы будете знать, что вместе с ароматом благоухают феромоны, создавая особую атмосферу влечения и сексуального желания. В зависимости от площади помещения рекомендуется применение одновременно нескольких дезодорантов. Срок действия аромата до 8 недель. Не токсичен. Имеет удобное крепление (пластиковый крючок).Инструкция по применению:1. Откройте целлофан согласно разметке сверху пакета.2. Достаньте крючок-крепление.3. Повесьте освежитель в удобном месте.4. Удаляйте часть упаковки по мере выветривания аромата.5. По необходимости или в целях маскировки, удалите упаковку перед планируемой ситуацией. Автомобильный ароматизатор с феромонами для привлечения женщин Desire (цитрус).  Автомобильный ароматизатор с феромонами для привлечения женщин Desire (цитрус). Модель: rosparf-054-5. Косметика, препараты. Смазки, косметика &gt; Ароматизаторы воздуха. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8983,17 +9275,13 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>5 мл</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -9039,7 +9327,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -9050,17 +9338,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака ОВЕН</t>
+          <t>Гель-смазка с феромонами для женщин</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-11257-1299</t>
+          <t>id-3467-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9076,12 +9364,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11257/11257_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3467/3467_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3467/3467_1_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК ОВЕН с повышенным содержанием феромонов для привлечения женщин. Аромат придаст шарма и абсолютной уверенности в себе. Живите полной жизнью, получайте удовольствие от каждой минуты.Тип аромата: шипровыйНачальная нота: мандарин, чай Эйрл Грэй (бергамот), чёрный перец. Нота сердца: кедровое дерево, кардамон, корица. Конечная нота: пачули, ветивер, амбра.Этот аромат понравится тем, кто предпочитает: Del Mar Baldessarini (Hugo Boss). Духи для мужчин знака ОВЕН.  Духи для мужчин знака ОВЕН. Модель: rosparf-151. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Лубрикант (смазка) DESIRE PHEROMONE с увлажняющим и смягчающим эффектом. Заменяет естественную смазку во время интимных отношений, обеспечивая лёгкое скольжение для достижения максимального наслаждения. Производит натуральное впечатление увлажнения и, благодаря феромонам, возбуждает обоих партнёров. Прекрасно ухаживает за кожей интимных мест. Использование лубриканта (смазки) с феромонами придаст вашим отношениям естественность и раскованность. Отличается уникальным составом на высококачественной водной основе. Не имеет противопоказаний! Гипоаллергенен.Абсолютно прозрачен и не имеет специфического запаха. Наносится во время полового акта на женские половые органы. Может применяться при использовании средств из резины, латекса, пластмассы и легко удаляется. Флакон с дозатором удобен и экономичен в использовании. Гель-смазка с феромонами для женщин DESIRE (60 мл).  Гель-смазка с феромонами для женщин DESIRE (60 мл). Модель: rosparf-056. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9091,29 +9379,29 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -9159,7 +9447,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -9175,12 +9463,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака РАК</t>
+          <t>Гель-смазка с феромонами для мужчин</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-11261-1299</t>
+          <t>id-3471-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9196,12 +9484,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11261/11261_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3471/3471_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3471/3471_1_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК РАК с повышенным содержанием феромонов для привлечения женщин. Аромат заставляет женщин инстинктивно чувствовать Ваше приближение. Вам невозможно противостоять, Вы маните к себе, соблазняете и влюбляете в себя с первого взгляда.Тип аромата: ориентальный.восточный.древесныйНачальная нота: перец, шафран. Нота сердца: кедровое дерево, сандаловое дерево. Конечная нота: амбра, мускус.Этот аромат понравится тем, кто предпочитает:  Escada Magnetism for Men (Escada). Духи для мужчин знака РАК.  Духи для мужчин знака РАК. Модель: rosparf-152. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Гель с феромонами DESIRE с увлажняющим, смягчающим эффектом предназначен для использования во время интимных отношений. Использование геля с феромонами усиливает и продлевает удовольствие, заменяет натуральную смазку, способствует более легкому скольжению. Гель отличается уникальным составом на высококачественной водной основе, совместим с презервативом и другими изделиями из латекса. Гель-смазка с феромонами для мужчин DESIRE (40 мл).  Гель-смазка с феромонами для мужчин DESIRE (40 мл). Модель: rosparf-058. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9211,29 +9499,29 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>40 мл</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>40 мл</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -9279,7 +9567,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9295,12 +9583,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака РЫБЫ</t>
+          <t>Гель-смазка с феромонами для мужчин</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-11260-1299</t>
+          <t>id-3470-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9316,12 +9604,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11260/11260_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3470/3470_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3470/3470_1_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК РЫБЫ с повышенным содержанием феромонов для привлечения женщин. Аромат узнаваем и элегантен, пробуждает бодрость и страсть к приключениям, не оставит равнодушными Ваше окружение.Тип аромата: фужерныйНачальная нота: апельсин, жасмин, лайм, бергамот. Нота сердца: цикламен, фиалка, мускатный орех, резеда, кориандр, персик и розмарин. Конечная нота: амбра, пачули, дубовый мох, кедр, белый мускус.Этот аромат понравится тем, кто предпочитает: Acqua di Gio Men (Giorgio Armani). Духи для мужчин знака РЫБЫ.  Духи для мужчин знака РЫБЫ. Модель: rosparf-153. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Гель с феромонами DESIRE с увлажняющим, смягчающим эффектом предназначен для использования во время интимных отношений. Использование геля с феромонами усиливает и продлевает удовольствие, заменяет натуральную смазку, способствует более легкому скольжению. Гель отличается уникальным составом на высококачественной водной основе, совместим с презервативом и другими изделиями из латекса. Гель-смазка с феромонами для мужчин DESIRE (60 мл).  Гель-смазка с феромонами для мужчин DESIRE (60 мл). Модель: rosparf-059. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9331,29 +9619,29 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -9399,7 +9687,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -9415,12 +9703,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака СКОРПИОН</t>
+          <t>Гель-смазка с феромонами для мужчин</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-11259-1299</t>
+          <t>id-3469-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9436,12 +9724,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11259/11259_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3469/3469_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3469/3469_1_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК СКОРПИОН с повышенным содержанием феромонов для привлечения женщин. Аромат искренней иронии и непосредственности. Обладатель этого аромата - непохож на другие: яркий интеллект и большие амбиции. Это мужчина, которому неизменно сопутствует успех.Тип аромата: фужерныйНачальная нота: лимонник. Нота сердца: герань, корица, лаванда, шалфей, эстрагон. Конечная нота: перец, сандал, кедр, фасоль тонкая, мускус, кумарин.Этот аромат понравится тем, кто предпочитает:  Dolce &amp; Gabbana pour Homme (Dolce &amp; Gabbana). Духи для мужчин знака СКОРПИОН.  Духи для мужчин знака СКОРПИОН. Модель: rosparf-154. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Гель с феромонами DESIRE с увлажняющим, смягчающим эффектом предназначен для использования во время интимных отношений. Использование геля с феромонами усиливает и продлевает удовольствие, заменяет натуральную смазку, способствует более легкому скольжению. Гель отличается уникальным составом на высококачественной водной основе, совместим с презервативом и другими изделиями из латекса. Гель-смазка с феромонами для мужчин DESIRE (100 мл).  Гель-смазка с феромонами для мужчин DESIRE (100 мл). Модель: rosparf-060. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9451,29 +9739,29 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -9519,7 +9807,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -9530,17 +9818,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Духи для мужчин знака СТРЕЛЕЦ</t>
+          <t>Стимулятор оргазма Exta-Z 1,5 мл без</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-11256-1299</t>
+          <t>id-3489-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9556,12 +9844,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11256/11256_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3489/3489_2_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Духи мужские ЗОДИАК СТРЕЛЕЦ с повышенным содержанием феромонов для привлечения женщин. Аромат построен на сочетании древесных и фужерных ноток, рисует образ увлечённых спортом, деловых и предприимчивых людей, которые остаются чувствительными к красоте.Тип аромата: древесно-фужерныйНачальная нота: бергамот, лимон, мята, полынь, мандарин, нероли. Нота сердца: цикламен, имбирь, морские водоросли, роза, герань, палисандр. Конечная нота: сандал, амбра, кедр, мускус.Этот аромат понравится тем, кто предпочитает:  Polo Sport (Ralph Lauren). Духи для мужчин знака СТРЕЛЕЦ.  Духи для мужчин знака СТРЕЛЕЦ. Модель: rosparf-155. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
+          <t xml:space="preserve">Единственное натуральное средство для наружнего применения, с помощью которого и мужчина, и женщина могут испытать фееричный оргазм и значительно продлить приятные ощущения! НЕ имеет аналога! Состоит из натуральных компонентов, это: органическое масло бурачника, масло примулы вечерней, экстракт дудника (ангелика), экстракт колеуса, эфирное масло иланг-иланга, масло тимьяна обыкновенного, масло чайного дерева, аскорбиновая кислота. При регулярном применении у мужчин отмечается увеличение полового органа, усиление потенции и глубины оргазма. Женщинам рекомендуется курсовое применение при аноргазмии и фригидности. При длительном применении нормализуется микрофлора влагалища (начальная стадия грибковых заболеваний, кандидоз, т.е. молочница). Возможно применение в качестве смазывающего средства, способствует повышению выделения секрета. Свыше 80% респонденток отмечают значительное улучшение качества интимной жизни, быстроту достижения оргазма, остроту оргастических ощущений, мультиоргазмы. Имеет пролонгированный эффект. Данные получены в результате исследований, проведённых на базе отделения сексопатологии НИИ Росздрава и независимых медицинских клиник. Препарат не имеет побочных действий, сертифицирован и клинически исследован, запатентован. Наносить на половые органы мужчины и женщины, с ЛЁГКИМ МАССАЖЕМ несколько минут. Рекомендуется начинать с минимальной дозы (1 капля), постепенно увеличивая ее, если эффект возбуждения выражен не достаточно. Противопоказаний к применению не выявлено. Возможна индивидуальная чувствительность. Совместим с любыми смазками и устройствами, призванными разнообразить и обострить сексуальные ощущения. Варианты применения (для женщин): 1. Для достижения клиторального оргазма нанести небольшое количество масла на клитор, мягкими массирующими движениями пальцев втирать (приблизительно от 5 до 15 минут) до получения оргазма. 2. Для достижения вагинального оргазма нанести небольшое количество масла на половые органы (половые губы, влагалище, пенис) партнёров непосредственно перед половым актом или за 3-5минут до него. 3. Для усиления приятных ощущений во время полового акта и продления оргазма у мужчин нанести непосредственно перед половым актом или за 3-5минут до него небольшое количество масла на пенис. Слегка втереть мягкими массирующими движениями. Варианты применения (для мужчин): Для стимулирования потенции, усиления приятных ощущений во время полового акта и продления оргазма у мужчин нанести непосредственно перед половым актом за 3-5 минут до него небольшое количество масла на пенис. Слегка втереть мягкими массирующими движениями. После нанесения масла возникает чувство тепла и возбуждения. Член становится твёрже, а эрекция будет продолжаться дольше. Дозировка подбирается индивидуально. Стимулятор оргазма Exta-Z 1,5 мл (без запаха).  Стимулятор оргазма Exta-Z 1,5 мл (без запаха). Модель: rosparf-065. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Смазки, косметика &gt; Увеличение размера члена. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9571,29 +9859,29 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>1,5 мл</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>1,5 мл</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -9639,40 +9927,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ROXANA</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Белые стринги с разрезом и рюшами</t>
+          <t>Гель-любрикант DESIRE (нейтральный) 60</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-12204-1299</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-3485-1299</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>99999</v>
@@ -9684,12 +9964,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12204/12204_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3485/3485_5_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Белые стринги с разрезом и рюшами.  Белые стринги с разрезом и рюшами. Модель: roxana-6645-02-00smw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: белый с черным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: ROXANA. </t>
+          <t xml:space="preserve">Нежный нейтральный гель придаст Вашим отношениям еще больше романтики и страсти. Прекрасно увлажняет кожу интимных мест, устраняя нежелательное ощущение сухости во время близости. Обеспечивает легкое и нежное скольжение для достижения максимального наслаждения. Гель-любрикант DESIRE (нейтральный) 60 мл.  Гель-любрикант DESIRE (нейтральный) 60 мл. Модель: rosparf-066. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9707,21 +9987,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>100% полиэстер</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -9767,28 +10047,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SAGAMI</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Презервативы ультратонкие Sagami Xtreme</t>
+          <t>Гель-любрикант DESIRE (ваниль) 60 мл</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-16806-1299</t>
+          <t>id-3482-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -9804,17 +10084,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16806/16806_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16806/16806_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3482/3482_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3482/3482_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3482/3482_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3482/3482_5_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы ультратонкие Sagami Xtreme 0,04 мм №15 (15 шт.).  Презервативы ультратонкие Sagami Xtreme 0,04 мм №15 (15 шт.). Модель: sagami-0134. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SAGAMI. </t>
+          <t xml:space="preserve">Ароматизированный любрикант (смазка), гель для ласк и поцелуев или гель для петтинга - ванильные поцелуи со вкусом и ароматом ваниль. Разжигает огонь страсти, заводит партнёра и продлевает наслаждение. Флакончик с дозатором, экономно расходуется. Прекрасное увлажняющее средство интимных мест. Обеспечивает комфортное скольжение, препятствуя раздражению. Совместим с различными интимными изделиями из любых материалов. Идеально подходит для оральных форм интимного контакта. Легко удаляется. Без противопоказаний. Гель-любрикант DESIRE (ваниль) 60 мл.  Гель-любрикант DESIRE (ваниль) 60 мл. Модель: rosparf-067. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -9827,21 +10107,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>натуральный латекс</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -9867,7 +10147,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>15 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -9887,28 +10167,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SAGAMI</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Ультратонкие полиуретановые</t>
+          <t>Гель-лубрикант DESIRE (шоколад) 60 мл</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-10867-1299</t>
+          <t>id-3484-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -9924,17 +10204,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10867/10867_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3484/3484_1_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полиуретановые презервативы Sagami Original  это сумма технологий и технологический прорыв старейшего японского производителя презервативов Sagami Rubber Industries Co.Ltd. В 3 раза тоньше, чем обычные латексные презервативы. Отличная теплопроводность - тепло партнера передается так, как если бы презерватива вообще не было. Полиуретан является биосовместимым материалом и идеально подходит в случае аллергии на латекс. Если кратко, то Sagami Original - это практически неощущаемые презервативы. Ультратонкие полиуретановые презервативы Original 0,02 мм (12 шт.).  Ультратонкие полиуретановые презервативы Original 0,02 мм (12 шт.). Модель: sagami-11111391. Презервативы. Презервативы &gt; Полиуретановые. Материал: полиуретан. Батареек нет в комплекте. Бренд: SAGAMI. </t>
+          <t xml:space="preserve">Нежный гель с ароматом шоколада придаст Вашим отношениям еще больше романтики и страсти. Прекрасно увлажняет кожу интимных мест, устраняя нежелательное ощущение сухости во время близости. Обеспечивает легкое и нежное скольжение для достижения максимального наслаждения. Гель-лубрикант DESIRE (шоколад) 60 мл.  Гель-лубрикант DESIRE (шоколад) 60 мл. Модель: rosparf-068. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -9947,44 +10227,34 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>полиуретан</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>19</v>
-      </c>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9997,7 +10267,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>12 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10017,32 +10287,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SAGAMI</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ультратонкие полиуретановые</t>
+          <t>Гель-лубрикант DESIRE (цитрус) 60 мл</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-10866-1299</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+          <t>id-3481-1299</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>54-56</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>99999</v>
@@ -10054,34 +10332,30 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10866/10866_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3481/3481_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3481/3481_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3481/3481_3_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sagami Оriginal 002 - ультратонкие полиуретановые презервативы. Самые тонкие в мире презервативы (0. 02 мм) - сумма технологий и технологический прорыв старейшего японского производителя презервативов Sagami Rubber Industries Co. Ltd. Полиуретановые презервативы практически неощутимы, незаметны, незаменимы при протеиновой аллергии на латекс и в несколько раз более надежны, чем обычные презервативы. Отличное качество этих презервативов позволит сохранить естественные ощущения, оставаясь при этом под надежной защитой. Ультратонкие полиуретановые презервативы Original 0,02 мм (6 шт.).  Ультратонкие полиуретановые презервативы Original 0,02 мм (6 шт.). Модель: sagami-11111393. Презервативы. Презервативы &gt; Полиуретановые. Материал: полиуретан. Батареек нет в комплекте. Бренд: SAGAMI. </t>
+          <t xml:space="preserve">Нежный гель с ароматом цитруса придаст Вашим отношениям еще больше романтики и страсти. Прекрасно увлажняет кожу интимных мест, устраняя нежелательное ощущение сухости во время близости. Обеспечивает легкое и нежное скольжение для достижения максимального наслаждения. Гель-лубрикант DESIRE (цитрус) 60 мл.  Гель-лубрикант DESIRE (цитрус) 60 мл. Модель: rosparf-069. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>полиуретан</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
@@ -10096,25 +10370,15 @@
       </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>19</v>
-      </c>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10127,7 +10391,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>6 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10147,28 +10411,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SAGAMI</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Ультратонкие полиуретановые</t>
+          <t>Гель-лубрикант DESIRE (клубника)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-10865-1299</t>
+          <t>id-3483-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10184,67 +10448,57 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10865/10865_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3483/3483_1_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Особенностью этой модели является наличие специальной ленты для быстрого одевания презерватива, которая значительно облегчает и ускоряет этот процесс. Ультратонкие полиуретановые презервативы QUICK Original 0,02 мм (6 шт.).  Ультратонкие полиуретановые презервативы QUICK Original 0,02 мм (6 шт.). Модель: sagami-11111460. Презервативы. Презервативы &gt; Полиуретановые. Материал: полиуретан. Батареек нет в комплекте. Бренд: SAGAMI. </t>
+          <t xml:space="preserve">.Гель-лубрикант DESIRE (клубника).  Гель-лубрикант DESIRE (клубника). Модель: rosparf-070. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>полиуретан</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>17</v>
-      </c>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>5.5</v>
-      </c>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10257,7 +10511,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>6 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10277,13 +10531,13 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SAGAMI</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10293,12 +10547,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Супер тонкие презервативы Sagami Xtreme</t>
+          <t>Крем интимный для мужчин MAXI-P (30 мл)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-28047-1299</t>
+          <t>id-3486-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -10314,67 +10568,57 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28047/28047_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3486/3486_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3486/3486_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3486/3486_1_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Толщина стенок этих латексных презервативов всего 0.04 мм! Это технологический предел для такого пористого материала, как натуральный латекс, даже самого лучшего качества. Передовые технологии корпорации Сагами позволяют изготавливать латексные презервативы почти в два раза тоньше стандартных аналогов других производителей. Ультратонкая толщина стенок этих презервативов делает их использование более комфортным и способствует большей естественности ощущений, при сохранении самой высокой эластичности и надежности. Супер тонкие презервативы Sagami Xtreme Superthin 0,04 мм (1 шт.).  Супер тонкие презервативы Sagami Xtreme Superthin 0,04 мм (1 шт.). Модель: sagami-143247. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SAGAMI. </t>
+          <t xml:space="preserve">Интимный крем DESIRE Intim MAXI-P для мужчин, желающих увеличить размеры члена, улучшить и обострить сладострастные ощущения. Крем увеличивает член до максимального физиологически возможного размера, улучшает качество эрекции и оргастические ощущения. У крема комфортный разогревающий эффект, так как в него добавлен экстракт корицы цейлонской. Это способствует тому, что за короткий отрезок времени к члену приливает большой поток крови и весь свободный кожный покров, в длину и ширину, наполняется и растягивается, тем самым увеличивая половой орган. При длительном использовании крема и специальной гимнастике с вакуумной помпой, половой орган мужчины может увеличиться на несколько сантиметров. Во время использования крема женщина почувствует, что секс стал более качественным, засчёт более тесного контакта. Максимальное возбуждение, отличная эрекция и яркий оргазм Вам гарантированы! Особое внимание уделить тому, КАК наносить крем! Выдавить крем, размером с горошину, на чистую ладонь, равномерно распределить на ствол пениса не затрагивая головку, так как НЕ РЕКОМЕНДУЕТСЯ наносить крем на слизистую! Дать крему впитаться 5-10 минут. Возможна индивидуальная чувствительность. В качестве предварительного тестирования, рекомендуем нанести крем на паховый или локтевой сгиб и понаблюдать за реакцией кожи. Без труда смывается тёплой водой. Крем интимный для мужчин MAXI-P (30 мл).  Крем интимный для мужчин MAXI-P (30 мл). Модель: rosparf-072. Косметика, препараты. Препараты и возбудители &gt; Усиление эрекции. Смазки, косметика &gt; Увеличение размера члена. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>натуральный латекс</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>19</v>
-      </c>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
-      <c r="AF82" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>5.2</v>
-      </c>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10387,7 +10631,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10407,28 +10651,28 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SAGAMI</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Презервативы усиливающие ощущения</t>
+          <t>Гель сужающий влагалище MINI-V (30 мл)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-23817-1299</t>
+          <t>id-3487-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -10444,17 +10688,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23817/23817_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3487/3487_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3487/3487_1_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sagami Xtreme FEEL UP -  продукт, доработанный на основе пожеланий женской аудитории (по итогам FEEDBACK 2010-12). Особенность этой модели - увеличение дополнительного напряжения в наиболее чувствительных областях у мужчины, что приводит к усилению активности обоих партнеров. Презервативы усиливающие ощущения SAGAMI Xtreme Feel UP (10 шт).  Презервативы усиливающие ощущения SAGAMI Xtreme Feel UP (10 шт). Модель: sagami-143250. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SAGAMI. </t>
+          <t xml:space="preserve">Интимный крем DESIRE Intim MINI-V. Создан для женщин, мышцы влагалища которых, недостаточно сокращаются. При ипользовании крема происходит расширение сосудов и усиление кровотока к половым органам (активным компонентом является экстракт коры дуба), в связи с этим, ткани наполняются и стенки влагалища сужаются. А это приводит к очень тесному контакту с партнёром, быстрому и лёгкому достижению наслаждения. . И можно даже попробовать . .снова стать девушкой. .Противопоказаний не имеет. ЭТО ВАЖНО! Промежуток времени позволяет избежать схожего действия крема на мужские половые органы. Если сужающее действие не ярко проявляется, то можно увеличивать дозу крема. Без труда смывается тёплой водой. Рекомендуем использовать с презервативами и интимными аксессуарами из любых материалов, что улучшит и разнообразит качество сексуальных отношений. Объём 30 мл. Особое внимание уделить тому, КАК наносить крем! Выдавить крем размером с горошину на тампон или кончики пальцев, нанести на вход и стенки влагалища, подождать 5-7 минут. Гель сужающий влагалище MINI-V (30 мл).  Гель сужающий влагалище MINI-V (30 мл). Модель: rosparf-073. Косметика, препараты. Смазки, косметика &gt; Сужение влагалища. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -10471,36 +10715,30 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>19</v>
-      </c>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10533,13 +10771,13 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Пролонгаторы</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SAGAMI</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10549,12 +10787,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ультратонкие полиуретановые</t>
+          <t>Крем-пролонгатор для мужчин PROLONGATOR</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-19650-1299</t>
+          <t>id-3488-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -10570,17 +10808,17 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19650/19650_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3488/3488_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3488/3488_1_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Ультратонкие полиуретановые презервативы увеличенного размера ORIGINAL L-size 0,02 мм (12 шт.).  Ультратонкие полиуретановые презервативы увеличенного размера ORIGINAL L-size 0,02 мм (12 шт.). Модель: sagami-originallsize12. Презервативы. Презервативы &gt; Полиуретановые. Цвет: прозрачный. Материал: полиуретан. Батареек нет в комплекте. Бренд: SAGAMI. </t>
+          <t xml:space="preserve">Интимный крем DESIRE Intim PROLONGATOR позволяет существенно увеличить длительность акта. Крем воздействует, притупляя чувствительность нервных окончаний на половом органе и семяизвержение задерживается на 5-20 минут. При регулярном использовании нормализуется самостоятельная функция регулирования семяизвержения. ВАЖНО правильно нанести крем: выдавите крем, размером с горошину, на чистую ладонь. Равномерно распределите на ствол пениса по всей длине, за 3-5 минут до начала полового акта. Дозировку увеличивать постепенно, по мере необходимости. Противопоказаний не имеет. Возможна индивидуальная чувствительность. Без труда смывается тёплой водой. Крем-пролонгатор для мужчин PROLONGATOR (30 мл).  Крем-пролонгатор для мужчин PROLONGATOR (30 мл). Модель: rosparf-074. Косметика, препараты. Препараты и возбудители &gt; Пролонгаторы для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -10593,38 +10831,28 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>полиуретан</t>
-        </is>
-      </c>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W84" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X84" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>19</v>
-      </c>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
@@ -10643,7 +10871,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>12 штук в упаковке</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -10663,13 +10891,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10679,12 +10907,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Спиралевидный анальный стимулятор с</t>
+          <t>Спрей с феромонами бз запаха UNISEX</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-9621-1299</t>
+          <t>id-3465-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10700,67 +10928,57 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/9621/9621_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9621/9621_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3465/3465_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3465/3465_4_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Спиралевидный анальный стимулятор с вибрацией Spiral.  Спиралевидный анальный стимулятор с вибрацией Spiral. Модель: sevcre-00149a. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: синий. Материал: гель. Батареек нет в комплекте. Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Magic Feromon Unisex обладают эффектом, который можно назвать Элексиром Доверия. Данные феромоны вызывают чувство доверия и симпатии к обладателю такого аромата, поэтому их можно использовать не только в интимной и личной жизни, но и для делового общения. Invisible - не имеет запаха, с повышенным содержанием феромонов, подходит для применения с любыми духами или без духов. Спрей с феромонами бз запаха UNISEX Invisible (20 мл).  Спрей с феромонами бз запаха UNISEX Invisible (20 мл). Модель: rosparf-104. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>гель</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr"/>
+          <t>20 мл</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 мл</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>16</v>
-      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>2.4</v>
-      </c>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10773,7 +10991,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>анальный стимулятор, виброяйцо</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -10793,28 +11011,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для лесбиянок</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Гнущийся двусторонний фаллос Ultra</t>
+          <t>Возбуждающий лубрикант UNEX на водной</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-12855-1299</t>
+          <t>id-12565-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -10830,17 +11048,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12855/12855_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12565/12565_1_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Гнущийся двусторонний фаллос Ultra Double Dong.  Гнущийся двусторонний фаллос Ultra Double Dong. Модель: sevcre-05-119cpr. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Двойные. Цвет: розовый. Материал: гель. Батареек нет в комплекте. Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Любриканты UNEX на водной основе объёмом 50 мл. Прекрасно увлажняют кожу интимных мест, повышают комфортность интимных отношений, обостряют и увеличивают чувствительность эрогенных зон. Эффективно защищают от потёртостей и раздражения. Наносить на половые органы непосредственно перед половым актом. Прозрачные, не оставляют пятен, обладают приятным еле уловимым ароматом. Безопасны при использовании изделий из резины, латекса и устройств, призванных разнообразить и улучшить сексуальные ощущения. Спешим сообщить, что в рамках протекающего ребрендинга нашей продукции мы выпустили обновлённые любриканты UNEX с возбуждающим эффектом  на водной основе. Новый не только дизайн. Объём тюбика теперь 50 мл вместо 40 мл. Теперь по физическим свойствам он соответствует лучшим европейским аналогам. Ну, а наличие в наших любрикантах специально разработанного сложного комплекса компонентов, обеспечивающих возбуждающий эффект, делает UNEX абсолютно уникальным. Возбуждающий лубрикант UNEX на водной основе (50 мл).  Возбуждающий лубрикант UNEX на водной основе (50 мл). Модель: rosparf-113-1. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -10853,44 +11071,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>гель</t>
-        </is>
-      </c>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>33</v>
-      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
       <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10923,13 +11131,13 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10939,12 +11147,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Большой вибратор SO REAL VIBRATING DONG</t>
+          <t>Женские духи с феромонами FLIRT</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-5205-1299</t>
+          <t>id-7884-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -10960,17 +11168,17 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5205/5205_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5205/5205_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5205/5205_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7884/7884_1_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Большой вибратор SO REAL VIBRATING DONG.  Большой вибратор SO REAL VIBRATING DONG. Модель: sevcre-05-126v. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone FLIRT NEW. Соблазнительный аромат мечтательной, озорной, жизнерадостной женщины, дополняет её кокетливый образ чувственностью и магнетизмом.Тип аромата: floral fruity . цветочно-фруктовыйВерхние ноты: груша, персик, ландыш. Ноты сердца: герань, болгарская роза, фиалка. Базовые ноты: белый мускус, ваниль. Женские духи с феромонами FLIRT.  Женские духи с феромонами FLIRT. Модель: rosparf-114. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -10983,44 +11191,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>5</v>
-      </c>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11053,13 +11251,13 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -11069,12 +11267,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Клиторальный массажер Pure Vibe</t>
+          <t>Женские духи с феромонами HOT LIPS</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-10190-1299</t>
+          <t>id-7887-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -11090,17 +11288,17 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10190/10190_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10190/10190_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7887/7887_1_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Клиторальный массажер Pure Vibe.  Клиторальный массажер Pure Vibe. Модель: sevcre-05-162pk. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый. Материал: мягкий силикон. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone HOT LIPS NEW. Аромат, рождающий страсть. Глубокий и многогранный, волнующий и томный, как поцелуй горячих, пьянящих губ.Тип аромата: floral orange blossom . цветочно-цитрусовыйВерхние ноты: земляника, грейпфрут, апельсин, мандарин. Ноты сердца: цветки апельсинового дерева, белого персика, пион. Базовые ноты: пачули, ваниль, пралине. Женские духи с феромонами HOT LIPS.  Женские духи с феромонами HOT LIPS. Модель: rosparf-115. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -11113,38 +11311,28 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>мягкий силикон</t>
-        </is>
-      </c>
+      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W88" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X88" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>5</v>
-      </c>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
@@ -11183,28 +11371,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Набор эрекционных колец Pro Rings</t>
+          <t>Женские духи с феромонами VAMP (8 мл)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-13453-1299</t>
+          <t>id-7886-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -11220,17 +11408,17 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13453/13453_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7886/7886_1_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор эрекционных колец Pro Rings.  Набор эрекционных колец Pro Rings. Модель: sevcre-05-251mcl-01. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: прозрачный. Материал: TPE (термоэластопласт). Батареек нет в комплекте. Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone VAMP NEW. Яркий аромат женщины-вамп. Эротичный, влекущий, обволакивающий, пробуждающий сильные эмоции и желание.Тип аромата: floriental . флориенталь (сложный цветочный аромат с восточными нотами)Верхние ноты: бергамот, мандарин, грейпфрут. Ноты сердца: маракуйя, пион, магнолия. Базовые ноты: пралине, ваниль. Женские духи с феромонами VAMP (8 мл).  Женские духи с феромонами VAMP (8 мл). Модель: rosparf-117. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -11243,21 +11431,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>TPE (термоэластопласт)</t>
-        </is>
-      </c>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W89" t="inlineStr"/>
@@ -11269,12 +11457,8 @@
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11287,7 +11471,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>3 кольца</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11307,13 +11491,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -11323,12 +11507,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Гелевый вибратор на присоске Water Soft</t>
+          <t>Женские духи с феромонами SEXY</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-12747-1299</t>
+          <t>id-7885-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11344,17 +11528,17 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12747/12747_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7885/7885_1_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Гелевый вибратор на присоске Water Soft Mounts.  Гелевый вибратор на присоске Water Soft Mounts. Модель: sevcre-06-161. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: розовый. Материал: гель. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Женские духи с феромонами Desire Pheromone SEXY NEW. Шикарный эликсир искушения и власти соблазняет и привлекает. Аромат пробуждает чувства и зажигает в сердце огонь любви. В нём хочется заблудиться и раствориться до последней капли. Сплетение нежных и сладковатых аккордов с богатым шлейфом. Для тех, кто хочет быть в центре внимания!Тип аромата: oriental woody . ориентально-древесный (аромат с восточными нотами, сладкий)Верхние ноты: пассифлора, она же страстоцвет (страстный цветок с лат.). Ноты сердца: жасмин, белый цветок таитянской гардении, он же цветок тиаре. Базовые ноты: ваниль, ветивер. Женские духи с феромонами SEXY.  Женские духи с феромонами SEXY. Модель: rosparf-118. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -11367,44 +11551,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>гель</t>
-        </is>
-      </c>
+      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>4</v>
-      </c>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11437,28 +11611,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Страпон с реалистичным фаллосом So-real</t>
+          <t>Мужские духи с феромонами I'M BOSS</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-12772-1299</t>
+          <t>id-7891-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11474,17 +11648,17 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12772/12772_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7891/7891_1_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Страпон с реалистичным фаллосом So-real Strap-On.  Страпон с реалистичным фаллосом So-real Strap-On. Модель: sevcre-06-175. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: телесный с черным. Материал: ПВХ. Батареек нет в комплекте. Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone IM BOSS. Роскошный и элегантный аромат, олицетворяющий власть и благосостояние, непревзойдённое лидерство во всём, как в делах, так и в отношениях.Тип аромата: woody citrus aromatic . древесно-цитрусовыйВерхние ноты: лимон, грейпфрут, апельсин. Ноты сердца: роза, свежая мята, мускатный орех. Базовые ноты: кедровое дерево, ветивер. Мужские духи с феромонами I'M BOSS.  Мужские духи с феромонами I'M BOSS. Модель: rosparf-119. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -11497,44 +11671,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
+      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>18</v>
-      </c>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11547,7 +11711,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>страпон, удлиняющие ленты для увеличения объема трусиков</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -11567,28 +11731,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Реалистичный вибратор с венками Trojan</t>
+          <t>Мужские духи с феромонами COOL</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-12846-1299</t>
+          <t>id-7890-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -11604,17 +11768,17 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12846/12846_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7890/7890_1_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Реалистичный вибратор с венками Trojan (вторая кожа).  Реалистичный вибратор с венками Trojan (вторая кожа). Модель: sevcre-14-11lfl. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: телесный. Материал: TPE (вторая кожа). Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone COOL. Аромат мужественности и уверенности. Аромат деловых мужчин, умеющих самостоятельно принимать решения, в том числе и в выборе партнёрши.Тип аромата: woody marine aromatic . древесно-морскойВерхние ноты: бергамот, лимон, мандарин. Ноты сердца: семена кориандра, морские ноты, цикламен. Базовые ноты: кедровое дерево, пачули, мох, мускус. Мужские духи с феромонами COOL.  Мужские духи с феромонами COOL. Модель: rosparf-120. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -11627,44 +11791,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>TPE (вторая кожа)</t>
-        </is>
-      </c>
+      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>17</v>
-      </c>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
       <c r="AE92" t="inlineStr"/>
-      <c r="AF92" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11697,28 +11851,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Черный анальный стимулятор на присоске</t>
+          <t>Мужские духи с феромонами CHEEKY (8 мл)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-12626-1299</t>
+          <t>id-7889-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -11729,22 +11883,22 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Черный анальный стимулятор на присоске G4 Rib Shaft (4 скорости)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12626/12626_12626_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7889/7889_1_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный анальный стимулятор на присоске G4 Rib Shaft (4 скорости).  Черный анальный стимулятор на присоске G4 Rib Shaft (4 скорости). Модель: sevcre-15-100blk. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. эластичный TPR (термоэластопласт), пластикБренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone CHEEKY. Дерзкий, сексуальный аромат для настоящего щёголя. Он в центре внимания и неустанно завоёвывает комплименты и томные взгляды.Тип аромата: aromatic fougere . фужерныйВерхние ноты: кедровые листья, кардамон, розовый перец. Ноты сердца: лаванда, герань, тархун. Базовые ноты: индонезийский пачули, кедровое дерево, мох. Мужские духи с феромонами CHEEKY (8 мл).  Мужские духи с феромонами CHEEKY (8 мл). Модель: rosparf-121. Косметика, препараты. Насадки и кольца. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -11761,26 +11915,24 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>11</v>
-      </c>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
@@ -11799,7 +11951,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 2,8-3,1 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -11819,28 +11971,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Стимулятор простаты с вибрацией G4</t>
+          <t>Мужские духи с феромонами SPORT</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-12392-1299</t>
+          <t>id-7892-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -11856,17 +12008,17 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12392/12392_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12392/12392_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7892/7892_1_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Стимулятор простаты с вибрацией G4 Curve Haed (4 скорости).  Стимулятор простаты с вибрацией G4 Curve Haed (4 скорости). Модель: sevcre-15-10blk. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: черный. Материал: TPR (термоэластопласт), пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone SPORT. Аромат активного, динамичного и спортивного мужчины. Пикантный и приятный аромат древесины покоряет своей силой, задаёт заряд энергии и бодрости для новых побед.Тип аромата: woody aromatic . древесныйВерхние ноты: полынь, кардамон, цедра лимона. Ноты сердца: розмарин, кедровые листья, фиалка. Базовые ноты: пачули, кедровое дерево. Мужские духи с феромонами SPORT.  Мужские духи с феромонами SPORT. Модель: rosparf-122. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -11879,44 +12031,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>TPR (термоэластопласт), пластик</t>
-        </is>
-      </c>
+      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>11</v>
-      </c>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
-      <c r="AF94" t="n">
-        <v>3.025</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>2.75</v>
-      </c>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11949,28 +12091,28 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Анальный расширитель The Knight с</t>
+          <t>Мужские духи с феромонами MASTER</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-13777-1299</t>
+          <t>id-7888-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -11986,17 +12128,17 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13777/13777_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13777/13777_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7888/7888_1_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальный расширитель The Knight с вибрацией.  Анальный расширитель The Knight с вибрацией. Модель: sevcre-16-44blk. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные расширители. Цвет: черный. Материал: латекс, ПВХ, пластик. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Мужские духи с феромонами Desire Pheromone MASTER. Аромат сильного и мудрого мужчины. Его основательность и надёжность беспрестанно приковывает взгляды прекрасной половины. Уверенность и сексуальность верные спутники всех достижений.Тип аромата: woody aromatic . древесныйВерхние ноты: лимон, зелёная листва, грейпфрут, апельсин. Ноты сердца: фиалка, свежая мята, морские ноты. Базовые ноты: индонезийский пачули, кедровое дерево, мох. Мужские духи с феромонами MASTER.  Мужские духи с феромонами MASTER. Модель: rosparf-123. Косметика, препараты. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -12009,48 +12151,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>латекс, ПВХ, пластик</t>
-        </is>
-      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>13</v>
-      </c>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>3.7</v>
-      </c>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12083,40 +12211,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Страпон-трусики с длинным фаллосом</t>
+          <t>Духи Unisex с феромонами INDIGO</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-12771-1299</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-7897-1299</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>99999</v>
@@ -12128,44 +12248,44 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12771/12771_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7897/7897_1_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Страпон-трусики с длинным фаллосом Magnum Strap-On.  Страпон-трусики с длинным фаллосом Magnum Strap-On. Модель: sevcre-23-17-e19. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: сиреневый. Материал: TPR (термоэластопласт), нейлон. Батареек нет в комплекте. Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone INDIGO. Обладатель этого аромата любит жизнь во всех ее проявлениях, являясь яркой натурой, привлекает всеобщее внимание и восхищение.Тип аромата: floral orange blossom . цветочно-древесно-цитрусовыйВерхние ноты: бергамот, лимон, мандарин, ноты зелени. Ноты сердца: жасмин, лилия, роза. Базовые ноты: кедровое дерево, сандаловое дерево, амбра, мускус, мох. Духи Unisex с феромонами INDIGO.  Духи Unisex с феромонами INDIGO. Модель: rosparf-124. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>TPR (термоэластопласт), нейлон</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
@@ -12191,7 +12311,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>страпон-трусики, фаллос, удлиняющие ленты для увеличения объема трусиков</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -12211,28 +12331,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Фаллопротез для двойного проникновения</t>
+          <t>Духи Unisex с феромонами RAINBOW</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-13775-1299</t>
+          <t>id-7896-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -12248,17 +12368,17 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13775/13775_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13775/13775_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7896/7896_1_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Фаллопротез для двойного проникновения 6,5'' Everlasting Duet.  Фаллопротез для двойного проникновения 6,5'' Everlasting Duet. Модель: sevcre-23-27n. Секс-игрушки. Страпоны и фаллопротезы &gt; Фаллопротезы мужские. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone RAINBOW. Универсальный, так называемый, парный аромат для юношей и девушек. Безупречный аромат для энергичных, позитивных, радужных людей!Тип аромата: floral woody citrus . цветочно-древесно-фруктовыйВерхние ноты: яблоко, груша, чёрная смородина, дыня, кардамон. Ноты сердца: роза, магнолия, экзотические фрукты. Базовые ноты: ветивер, мох, кедр. Духи Unisex с феромонами RAINBOW.  Духи Unisex с феромонами RAINBOW. Модель: rosparf-125. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -12271,44 +12391,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
+      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>15</v>
-      </c>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>4</v>
-      </c>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12341,13 +12451,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12357,12 +12467,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Анальный вибро-стимулятор с шариками</t>
+          <t>Духи Unisex с феромонами PARTNER</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-13443-1299</t>
+          <t>id-7895-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12373,22 +12483,22 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Анальный вибро-стимулятор с шариками Anovibe</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13443/13443_13443_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7895/7895_1_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальный вибро-стимулятор с шариками Anovibe.  Анальный вибро-стимулятор с шариками Anovibe. Модель: sevcre-2k103vpr. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: розовый. Материал: 4890888112133#4890888119705. твердый гельБренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone PARTNER NEW. Эта модная парфюмерная композиция вызовет лишь положительные эмоции у вашего визави, будь то деловое общение или личное. С этим ароматом вы надёжный и приятный партнёр во всех смыслах и отношениях!Тип аромата: oriental woody . восточно-древесныйВерхние ноты: апельсин, мандарин. Ноты сердца: кедровое дерево, гелиотроп. Базовые ноты: бобы тонка, ваниль, мускус, сандаловое дерево. Духи Unisex с феромонами PARTNER.  Духи Unisex с феромонами PARTNER. Модель: rosparf-126. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -12401,34 +12511,28 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>4890888112133#4890888119705</t>
-        </is>
-      </c>
+      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="Z98" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
@@ -12447,7 +12551,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> глубина проникновения 12,5 см, диаметр 0,8-2 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12467,13 +12571,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12483,12 +12587,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Большая анальная пробка с вибрацией</t>
+          <t>Духи Unisex с феромонами BUSINESS</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-12845-1299</t>
+          <t>id-7893-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12504,17 +12608,17 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12845/12845_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7893/7893_1_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Большая анальная пробка с вибрацией Clear Plug.  Большая анальная пробка с вибрацией Clear Plug. Модель: sevcre-2k322lcpr. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Цвет: розовый. Материал: гель. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone BUSINESS. Деловой парфюм и этим всё сказано. Феромоны унисекс и великолепная парфюмерная композиция помогут вам открыть любые двери и заключить самые выгодные контракты, в том числе и брачные.Тип аромата: floral woody citrus . цветочно-древесно-цитрусовыйВерхние ноты: манго, грейпфрут, бергамот. Ноты сердца: лотос, кардамон. Базовые ноты: кедровое дерево, мускус, фиалковый корень. Духи Unisex с феромонами BUSINESS.  Духи Unisex с феромонами BUSINESS. Модель: rosparf-127. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -12527,44 +12631,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>гель</t>
-        </is>
-      </c>
+      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>12</v>
-      </c>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12597,28 +12691,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Надувной вибро-фаллос для G-точки</t>
+          <t>Духи Unisex с феромонами AMIGO</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-13171-1299</t>
+          <t>id-7894-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12634,17 +12728,17 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13171/13171_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7894/7894_1_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Надувной вибро-фаллос для G-точки Throbbing G-Spot Vibrator.  Надувной вибро-фаллос для G-точки Throbbing G-Spot Vibrator. Модель: sevcre-2k347lv. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фиолетовый. Материал: ПВХ, пластик, латекс. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Духи унисекс с феромонами Desire Pheromone AMIGO NEW. Аромат энергии и жизнерадостности, со свежими изящными нотами. Универсальный и стремительный, лёгкий и манящий.Тип аромата: woody fruity . древесно-фруктовыйВерхние ноты: бергамот, корица, яблоко, ананас. Ноты сердца: лепестки жасмина, нероли. Базовые ноты: ветивер, ваниль, белый мускус. Духи Unisex с феромонами AMIGO.  Духи Unisex с феромонами AMIGO. Модель: rosparf-128. Косметика, препараты. Ароматическая продукция &gt; Унисекс. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -12657,44 +12751,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>ПВХ, пластик, латекс</t>
-        </is>
-      </c>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr"/>
+          <t>8 мл</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8 мл</t>
         </is>
       </c>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>15</v>
-      </c>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12727,85 +12811,81 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SEVEN CREATIONS</t>
+          <t>РОСПАРФЮМ</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Набор из двух фаллосов и универсальных</t>
+          <t>Духи для женщин знака ВОДОЛЕЙ</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-13093-1299</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-11247-1299</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>99999</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>универсальные страпон-трусики, два сменных фаллоса-насадки</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13093/13093_13093_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11247/11247_1_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фалопротез (Женский) с двумя сменными насадками, разнообразной формы, крепится на трусиках. Набор из двух фаллосов и универсальных страпон-трусиков Double Tip Strap-On.  Набор из двух фаллосов и универсальных страпон-трусиков Double Tip Strap-On. Модель: sevcre-2k704. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: розовый, фиолетовый, черный. ПВХ, искусственная кожаБренд: SEVEN CREATIONS. </t>
+          <t xml:space="preserve">Духи женские с повышенным содержанием феромонов для привлечения мужчин ЗОДИАК ВОДОЛЕЙ. Аромат создаёт вокруг Вас атмосферу притяжения. Гипнотизирует, искушает и провоцирует, пробуждает чувства и околдовывает.Тип аромата: цветочныйНачальная нота: цветки апельсинового дерева, листья кориандра, кардамон. Нота сердца: жасмин, листья фиалки. Конечная нота: сандал, мускус, ваниль. Аналог: Touch of Pink (Lacoste). Духи для женщин знака ВОДОЛЕЙ.  Духи для женщин знака ВОДОЛЕЙ. Модель: rosparf-134. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: РОСПАРФЮМ. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr"/>
+          <t>5 мл</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>
@@ -12831,7 +12911,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина роз. фал-са 17 см, диаметр 2,8-4 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
